--- a/koder/Registeroversigt.xlsx
+++ b/koder/Registeroversigt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentsdudk-my.sharepoint.com/personal/olvea16_student_sdu_dk/Documents/Pro2/koder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver\Documents\GitRep\koder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -346,7 +346,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#####0"/>
+    <numFmt numFmtId="164" formatCode="#####0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -481,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -490,18 +490,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -510,6 +504,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -528,16 +526,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1900,7 +1894,7 @@
   <dimension ref="A1:BO67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:L11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,26 +1921,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="E1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="N1" s="6" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="N1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
       <c r="BN1" s="2" t="str">
         <f>"000"</f>
         <v>000</v>
@@ -1957,46 +1951,46 @@
       </c>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>40</v>
       </c>
       <c r="Z2" s="2" t="s">
@@ -2017,14 +2011,14 @@
       <c r="AE2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AI2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
       <c r="BN2" s="2" t="str">
         <f t="shared" ref="BN2:BN8" si="0">"000"</f>
         <v>000</v>
@@ -2044,16 +2038,16 @@
       <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
       <c r="N3" s="2" t="s">
         <v>18</v>
       </c>
@@ -2125,28 +2119,28 @@
       <c r="C4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
       <c r="N4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="9"/>
-      <c r="Y4" s="10" t="str">
-        <f>_xlfn.CONCAT(BN1,BO1)</f>
+      <c r="V4" s="7"/>
+      <c r="Y4" s="8" t="str">
+        <f t="shared" ref="Y4:Y35" si="1">_xlfn.CONCAT(BN1,BO1)</f>
         <v>000000</v>
       </c>
       <c r="Z4" s="2"/>
@@ -2164,51 +2158,51 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="2">
-        <f t="shared" ref="AJ4:AN4" si="1">AA4*AA$3</f>
+        <f t="shared" ref="AJ4:AN4" si="2">AA4*AA$3</f>
         <v>0</v>
       </c>
       <c r="AK4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AN4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AP4" s="2">
-        <f>SUM(AI4:AN4)</f>
+        <f t="shared" ref="AP4:AP35" si="3">SUM(AI4:AN4)</f>
         <v>0</v>
       </c>
       <c r="AT4" t="str">
-        <f t="shared" ref="AT4:AT64" si="2">IF(Z4=1,"2^5","")</f>
+        <f t="shared" ref="AT4:AT64" si="4">IF(Z4=1,"2^5","")</f>
         <v/>
       </c>
       <c r="AU4" t="str">
-        <f t="shared" ref="AU4:AU64" si="3">IF(AA4=1,"2^4","")</f>
+        <f t="shared" ref="AU4:AU64" si="5">IF(AA4=1,"2^4","")</f>
         <v/>
       </c>
       <c r="AV4" t="str">
-        <f t="shared" ref="AV4:AV64" si="4">IF(AB4=1,"2^3","")</f>
+        <f t="shared" ref="AV4:AV64" si="6">IF(AB4=1,"2^3","")</f>
         <v/>
       </c>
       <c r="AW4" t="str">
-        <f t="shared" ref="AW4:AW64" si="5">IF(AC4=1,"2^2","")</f>
+        <f t="shared" ref="AW4:AW64" si="7">IF(AC4=1,"2^2","")</f>
         <v/>
       </c>
       <c r="AX4" t="str">
-        <f t="shared" ref="AX4:AX64" si="6">IF(AD4=1,"2^1","")</f>
+        <f t="shared" ref="AX4:AX64" si="8">IF(AD4=1,"2^1","")</f>
         <v/>
       </c>
       <c r="AY4" t="str">
-        <f t="shared" ref="AY4:AY64" si="7">IF(AE4=1,"2^0","")</f>
+        <f t="shared" ref="AY4:AY64" si="9">IF(AE4=1,"2^0","")</f>
         <v/>
       </c>
       <c r="BN4" s="2" t="str">
@@ -2243,15 +2237,15 @@
       <c r="N5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="V5" s="9"/>
-      <c r="Y5" s="10" t="str">
-        <f>_xlfn.CONCAT(BN2,BO2)</f>
+      <c r="V5" s="7"/>
+      <c r="Y5" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>000001</v>
       </c>
       <c r="Z5" s="2"/>
@@ -2267,31 +2261,31 @@
         <v>1</v>
       </c>
       <c r="AI5" s="2">
-        <f t="shared" ref="AI5:AI54" si="8">Z5*Z$3</f>
+        <f t="shared" ref="AI5:AI54" si="10">Z5*Z$3</f>
         <v>0</v>
       </c>
       <c r="AJ5" s="2">
-        <f t="shared" ref="AJ5:AJ54" si="9">AA5*AA$3</f>
+        <f t="shared" ref="AJ5:AJ54" si="11">AA5*AA$3</f>
         <v>0</v>
       </c>
       <c r="AK5" s="2">
-        <f t="shared" ref="AK5:AK54" si="10">AB5*AB$3</f>
+        <f t="shared" ref="AK5:AK54" si="12">AB5*AB$3</f>
         <v>0</v>
       </c>
       <c r="AL5" s="2">
-        <f t="shared" ref="AL5:AL54" si="11">AC5*AC$3</f>
+        <f t="shared" ref="AL5:AL54" si="13">AC5*AC$3</f>
         <v>0</v>
       </c>
       <c r="AM5" s="2">
-        <f t="shared" ref="AM5:AM54" si="12">AD5*AD$3</f>
+        <f t="shared" ref="AM5:AM54" si="14">AD5*AD$3</f>
         <v>0</v>
       </c>
       <c r="AN5" s="2">
-        <f t="shared" ref="AN5:AN54" si="13">AE5*AE$3</f>
+        <f t="shared" ref="AN5:AN54" si="15">AE5*AE$3</f>
         <v>1</v>
       </c>
       <c r="AP5" s="2">
-        <f>SUM(AI5:AN5)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AR5">
@@ -2299,27 +2293,27 @@
         <v>0</v>
       </c>
       <c r="AT5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AU5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AV5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AW5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AX5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AY5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2^0</v>
       </c>
       <c r="AZ5">
@@ -2344,28 +2338,28 @@
       <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
       <c r="N6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="V6" s="9"/>
-      <c r="Y6" s="10" t="str">
-        <f>_xlfn.CONCAT(BN3,BO3)</f>
+      <c r="V6" s="7"/>
+      <c r="Y6" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>000010</v>
       </c>
       <c r="Z6" s="2"/>
@@ -2377,63 +2371,63 @@
       </c>
       <c r="AE6" s="2"/>
       <c r="AG6" s="2">
-        <f t="shared" ref="AG6:AG54" si="14">SUM(Z6:AE6)</f>
+        <f t="shared" ref="AG6:AG54" si="16">SUM(Z6:AE6)</f>
         <v>1</v>
       </c>
       <c r="AI6" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM6" s="2">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AN6" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP6" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AR6">
+        <f t="shared" ref="AR6:AR67" si="17">LOG(AP6,2)</f>
+        <v>1</v>
+      </c>
+      <c r="AT6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AU6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV6" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AX6" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="2">
+        <v>2^1</v>
+      </c>
+      <c r="AY6" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK6" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL6" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM6" s="2">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AN6" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AP6" s="2">
-        <f>SUM(AI6:AN6)</f>
-        <v>2</v>
-      </c>
-      <c r="AR6">
-        <f t="shared" ref="AR6:AR67" si="15">LOG(AP6,2)</f>
-        <v>1</v>
-      </c>
-      <c r="AT6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AU6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AW6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AX6" t="str">
-        <f t="shared" si="6"/>
-        <v>2^1</v>
-      </c>
-      <c r="AY6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AZ6">
@@ -2471,15 +2465,15 @@
       <c r="N7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V7" s="9"/>
-      <c r="Y7" s="10" t="str">
-        <f>_xlfn.CONCAT(BN4,BO4)</f>
+      <c r="V7" s="7"/>
+      <c r="Y7" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>000011</v>
       </c>
       <c r="Z7" s="2"/>
@@ -2491,63 +2485,63 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AG7" s="2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AI7" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK7" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL7" s="2">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AM7" s="2">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AI7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AT7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AU7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW7" t="str">
+        <f t="shared" si="7"/>
+        <v>2^2</v>
+      </c>
+      <c r="AX7" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="2">
+        <v/>
+      </c>
+      <c r="AY7" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK7" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL7" s="2">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AM7" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN7" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AP7" s="2">
-        <f>SUM(AI7:AN7)</f>
-        <v>4</v>
-      </c>
-      <c r="AR7">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AT7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AU7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AW7" t="str">
-        <f t="shared" si="5"/>
-        <v>2^2</v>
-      </c>
-      <c r="AX7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AY7" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AZ7">
@@ -2583,15 +2577,15 @@
       <c r="N8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="9" t="s">
         <v>32</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V8" s="9"/>
-      <c r="Y8" s="10" t="str">
-        <f>_xlfn.CONCAT(BN5,BO5)</f>
+      <c r="V8" s="7"/>
+      <c r="Y8" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>000100</v>
       </c>
       <c r="Z8" s="2"/>
@@ -2603,63 +2597,63 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AG8" s="2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AI8" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="2">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AL8" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM8" s="2">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AI8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP8" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="AT8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AU8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV8" t="str">
+        <f t="shared" si="6"/>
+        <v>2^3</v>
+      </c>
+      <c r="AW8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AX8" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="2">
+        <v/>
+      </c>
+      <c r="AY8" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK8" s="2">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AL8" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM8" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN8" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AP8" s="2">
-        <f>SUM(AI8:AN8)</f>
-        <v>8</v>
-      </c>
-      <c r="AR8">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="AT8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AU8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV8" t="str">
-        <f t="shared" si="4"/>
-        <v>2^3</v>
-      </c>
-      <c r="AW8" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AX8" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AY8" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AZ8">
@@ -2682,15 +2676,15 @@
         <v>102</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="E9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="20" t="s">
+      <c r="E9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="4" t="s">
+      <c r="H9" s="16"/>
+      <c r="I9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="14" t="s">
@@ -2701,15 +2695,15 @@
       <c r="N9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="9" t="s">
         <v>33</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="V9" s="9"/>
-      <c r="Y9" s="10" t="str">
-        <f>_xlfn.CONCAT(BN6,BO6)</f>
+      <c r="V9" s="7"/>
+      <c r="Y9" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>000101</v>
       </c>
       <c r="Z9" s="2"/>
@@ -2721,63 +2715,63 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AG9" s="2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AI9" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="AK9" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AI9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP9" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="AR9">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="AT9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AU9" t="str">
+        <f t="shared" si="5"/>
+        <v>2^4</v>
+      </c>
+      <c r="AV9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AX9" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="2">
+        <v/>
+      </c>
+      <c r="AY9" t="str">
         <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="AK9" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL9" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM9" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN9" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AP9" s="2">
-        <f>SUM(AI9:AN9)</f>
-        <v>16</v>
-      </c>
-      <c r="AR9">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="AT9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AU9" t="str">
-        <f t="shared" si="3"/>
-        <v>2^4</v>
-      </c>
-      <c r="AV9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AW9" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AX9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AY9" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AZ9">
@@ -2815,15 +2809,15 @@
       <c r="N10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V10" s="9"/>
-      <c r="Y10" s="10" t="str">
-        <f>_xlfn.CONCAT(BN7,BO7)</f>
+      <c r="V10" s="7"/>
+      <c r="Y10" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>000110</v>
       </c>
       <c r="Z10" s="2">
@@ -2835,70 +2829,70 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AG10" s="2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AI10" s="2">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="AJ10" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK10" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM10" s="2">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AI10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP10" s="2">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="AR10">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="AT10" t="str">
+        <f t="shared" si="4"/>
+        <v>2^5</v>
+      </c>
+      <c r="AU10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AX10" t="str">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="AJ10" s="2">
+        <v/>
+      </c>
+      <c r="AY10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK10" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL10" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM10" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN10" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AP10" s="2">
-        <f>SUM(AI10:AN10)</f>
-        <v>32</v>
-      </c>
-      <c r="AR10">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="AT10" t="str">
-        <f t="shared" si="2"/>
-        <v>2^5</v>
-      </c>
-      <c r="AU10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV10" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AW10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AX10" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AY10" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AZ10">
         <v>5</v>
       </c>
       <c r="BN10" s="2" t="str">
-        <f t="shared" ref="BN10:BN16" si="16">"001"</f>
+        <f t="shared" ref="BN10:BN16" si="18">"001"</f>
         <v>001</v>
       </c>
       <c r="BO10" s="2" t="str">
@@ -2927,15 +2921,15 @@
       <c r="N11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V11" s="9"/>
-      <c r="Y11" s="10" t="str">
-        <f>_xlfn.CONCAT(BN8,BO8)</f>
+      <c r="V11" s="7"/>
+      <c r="Y11" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>000111</v>
       </c>
       <c r="Z11" s="2"/>
@@ -2949,70 +2943,70 @@
         <v>1</v>
       </c>
       <c r="AG11" s="2">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AI11" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="2">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="AI11" s="2">
+      <c r="AN11" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP11" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AR11">
+        <f t="shared" si="17"/>
+        <v>1.5849625007211563</v>
+      </c>
+      <c r="AT11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AU11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AX11" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="2">
+        <v>2^1</v>
+      </c>
+      <c r="AY11" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK11" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL11" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM11" s="2">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AN11" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AP11" s="2">
-        <f>SUM(AI11:AN11)</f>
-        <v>3</v>
-      </c>
-      <c r="AR11">
-        <f t="shared" si="15"/>
-        <v>1.5849625007211563</v>
-      </c>
-      <c r="AT11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AU11" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AW11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AX11" t="str">
-        <f t="shared" si="6"/>
-        <v>2^1</v>
-      </c>
-      <c r="AY11" t="str">
-        <f t="shared" si="7"/>
         <v>2^0</v>
       </c>
       <c r="AZ11">
         <v>6</v>
       </c>
       <c r="BN11" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>001</v>
       </c>
       <c r="BO11" s="2" t="str">
@@ -3021,7 +3015,7 @@
       </c>
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="2"/>
@@ -3033,19 +3027,19 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="4"/>
+      <c r="L12" s="3"/>
       <c r="N12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="V12" s="9"/>
-      <c r="Y12" s="10" t="str">
-        <f>_xlfn.CONCAT(BN9,BO9)</f>
+      <c r="V12" s="7"/>
+      <c r="Y12" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>001000</v>
       </c>
       <c r="Z12" s="2"/>
@@ -3059,70 +3053,70 @@
         <v>1</v>
       </c>
       <c r="AG12" s="2">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AI12" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="2">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AM12" s="2">
         <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="AI12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP12" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AR12">
+        <f t="shared" si="17"/>
+        <v>2.3219280948873622</v>
+      </c>
+      <c r="AT12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AU12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW12" t="str">
+        <f t="shared" si="7"/>
+        <v>2^2</v>
+      </c>
+      <c r="AX12" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="2">
+        <v/>
+      </c>
+      <c r="AY12" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK12" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL12" s="2">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AM12" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN12" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AP12" s="2">
-        <f>SUM(AI12:AN12)</f>
-        <v>5</v>
-      </c>
-      <c r="AR12">
-        <f t="shared" si="15"/>
-        <v>2.3219280948873622</v>
-      </c>
-      <c r="AT12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AU12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AW12" t="str">
-        <f t="shared" si="5"/>
-        <v>2^2</v>
-      </c>
-      <c r="AX12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AY12" t="str">
-        <f t="shared" si="7"/>
         <v>2^0</v>
       </c>
       <c r="AZ12">
         <v>7</v>
       </c>
       <c r="BN12" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>001</v>
       </c>
       <c r="BO12" s="2" t="str">
@@ -3131,7 +3125,7 @@
       </c>
     </row>
     <row r="13" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="2"/>
@@ -3147,15 +3141,15 @@
       <c r="N13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O13" s="11" t="s">
+      <c r="O13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="V13" s="9"/>
-      <c r="Y13" s="10" t="str">
-        <f>_xlfn.CONCAT(BN10,BO10)</f>
+      <c r="V13" s="7"/>
+      <c r="Y13" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>001001</v>
       </c>
       <c r="Z13" s="2"/>
@@ -3169,70 +3163,70 @@
         <v>1</v>
       </c>
       <c r="AG13" s="2">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AI13" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="2">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AL13" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="2">
         <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="AI13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP13" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="17"/>
+        <v>3.1699250014423126</v>
+      </c>
+      <c r="AT13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AU13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV13" t="str">
+        <f t="shared" si="6"/>
+        <v>2^3</v>
+      </c>
+      <c r="AW13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AX13" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="2">
+        <v/>
+      </c>
+      <c r="AY13" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK13" s="2">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AL13" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM13" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN13" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AP13" s="2">
-        <f>SUM(AI13:AN13)</f>
-        <v>9</v>
-      </c>
-      <c r="AR13">
-        <f t="shared" si="15"/>
-        <v>3.1699250014423126</v>
-      </c>
-      <c r="AT13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AU13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV13" t="str">
-        <f t="shared" si="4"/>
-        <v>2^3</v>
-      </c>
-      <c r="AW13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AX13" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AY13" t="str">
-        <f t="shared" si="7"/>
         <v>2^0</v>
       </c>
       <c r="AZ13">
         <v>8</v>
       </c>
       <c r="BN13" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>001</v>
       </c>
       <c r="BO13" s="2" t="str">
@@ -3241,7 +3235,7 @@
       </c>
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="2"/>
@@ -3257,15 +3251,15 @@
       <c r="N14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="11" t="s">
+      <c r="O14" s="9" t="s">
         <v>15</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="V14" s="9"/>
-      <c r="Y14" s="10" t="str">
-        <f>_xlfn.CONCAT(BN11,BO11)</f>
+      <c r="V14" s="7"/>
+      <c r="Y14" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>001010</v>
       </c>
       <c r="Z14" s="2"/>
@@ -3279,70 +3273,70 @@
         <v>1</v>
       </c>
       <c r="AG14" s="2">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AI14" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="2">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="AK14" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM14" s="2">
         <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="AI14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP14" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="17"/>
+        <v>4.08746284125034</v>
+      </c>
+      <c r="AT14" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AU14" t="str">
+        <f t="shared" si="5"/>
+        <v>2^4</v>
+      </c>
+      <c r="AV14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AX14" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="2">
+        <v/>
+      </c>
+      <c r="AY14" t="str">
         <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="AK14" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL14" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM14" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN14" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AP14" s="2">
-        <f>SUM(AI14:AN14)</f>
-        <v>17</v>
-      </c>
-      <c r="AR14">
-        <f t="shared" si="15"/>
-        <v>4.08746284125034</v>
-      </c>
-      <c r="AT14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AU14" t="str">
-        <f t="shared" si="3"/>
-        <v>2^4</v>
-      </c>
-      <c r="AV14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AW14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AX14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AY14" t="str">
-        <f t="shared" si="7"/>
         <v>2^0</v>
       </c>
       <c r="AZ14">
         <v>9</v>
       </c>
       <c r="BN14" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>001</v>
       </c>
       <c r="BO14" s="2" t="str">
@@ -3356,26 +3350,26 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
       <c r="N15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="O15" s="9" t="s">
         <v>12</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="V15" s="9"/>
-      <c r="Y15" s="10" t="str">
-        <f>_xlfn.CONCAT(BN12,BO12)</f>
+      <c r="V15" s="7"/>
+      <c r="Y15" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>001011</v>
       </c>
       <c r="Z15" s="2">
@@ -3389,70 +3383,70 @@
         <v>1</v>
       </c>
       <c r="AG15" s="2">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AI15" s="2">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="AJ15" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="2">
         <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="AI15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP15" s="2">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="17"/>
+        <v>5.0443941193584534</v>
+      </c>
+      <c r="AT15" t="str">
+        <f t="shared" si="4"/>
+        <v>2^5</v>
+      </c>
+      <c r="AU15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AX15" t="str">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="AJ15" s="2">
+        <v/>
+      </c>
+      <c r="AY15" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK15" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL15" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM15" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN15" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AP15" s="2">
-        <f>SUM(AI15:AN15)</f>
-        <v>33</v>
-      </c>
-      <c r="AR15">
-        <f t="shared" si="15"/>
-        <v>5.0443941193584534</v>
-      </c>
-      <c r="AT15" t="str">
-        <f t="shared" si="2"/>
-        <v>2^5</v>
-      </c>
-      <c r="AU15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AW15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AX15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AY15" t="str">
-        <f t="shared" si="7"/>
         <v>2^0</v>
       </c>
       <c r="AZ15">
         <v>10</v>
       </c>
       <c r="BN15" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>001</v>
       </c>
       <c r="BO15" s="2" t="str">
@@ -3466,22 +3460,22 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
       <c r="N16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="V16" s="9"/>
-      <c r="Y16" s="10" t="str">
-        <f>_xlfn.CONCAT(BN13,BO13)</f>
+      <c r="V16" s="7"/>
+      <c r="Y16" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>001100</v>
       </c>
       <c r="Z16" s="2"/>
@@ -3495,70 +3489,70 @@
       </c>
       <c r="AE16" s="2"/>
       <c r="AG16" s="2">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AI16" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="2">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AM16" s="2">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="AI16" s="2">
+      <c r="AN16" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP16" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AR16">
+        <f t="shared" si="17"/>
+        <v>2.5849625007211561</v>
+      </c>
+      <c r="AT16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AU16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV16" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW16" t="str">
+        <f t="shared" si="7"/>
+        <v>2^2</v>
+      </c>
+      <c r="AX16" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="2">
+        <v>2^1</v>
+      </c>
+      <c r="AY16" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK16" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL16" s="2">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AM16" s="2">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AN16" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AP16" s="2">
-        <f>SUM(AI16:AN16)</f>
-        <v>6</v>
-      </c>
-      <c r="AR16">
-        <f t="shared" si="15"/>
-        <v>2.5849625007211561</v>
-      </c>
-      <c r="AT16" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AU16" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AW16" t="str">
-        <f t="shared" si="5"/>
-        <v>2^2</v>
-      </c>
-      <c r="AX16" t="str">
-        <f t="shared" si="6"/>
-        <v>2^1</v>
-      </c>
-      <c r="AY16" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AZ16">
         <v>11</v>
       </c>
       <c r="BN16" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>001</v>
       </c>
       <c r="BO16" s="2" t="str">
@@ -3575,9 +3569,9 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="V17" s="9"/>
-      <c r="Y17" s="10" t="str">
-        <f>_xlfn.CONCAT(BN14,BO14)</f>
+      <c r="V17" s="7"/>
+      <c r="Y17" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>001101</v>
       </c>
       <c r="Z17" s="2"/>
@@ -3591,63 +3585,63 @@
       </c>
       <c r="AE17" s="2"/>
       <c r="AG17" s="2">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AI17" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="2">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AL17" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM17" s="2">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="AI17" s="2">
+      <c r="AN17" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP17" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="AR17">
+        <f t="shared" si="17"/>
+        <v>3.3219280948873626</v>
+      </c>
+      <c r="AT17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AU17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV17" t="str">
+        <f t="shared" si="6"/>
+        <v>2^3</v>
+      </c>
+      <c r="AW17" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AX17" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="2">
+        <v>2^1</v>
+      </c>
+      <c r="AY17" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK17" s="2">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AL17" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM17" s="2">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AN17" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AP17" s="2">
-        <f>SUM(AI17:AN17)</f>
-        <v>10</v>
-      </c>
-      <c r="AR17">
-        <f t="shared" si="15"/>
-        <v>3.3219280948873626</v>
-      </c>
-      <c r="AT17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AU17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV17" t="str">
-        <f t="shared" si="4"/>
-        <v>2^3</v>
-      </c>
-      <c r="AW17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AX17" t="str">
-        <f t="shared" si="6"/>
-        <v>2^1</v>
-      </c>
-      <c r="AY17" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AZ17">
@@ -3663,22 +3657,22 @@
       </c>
     </row>
     <row r="18" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="V18" s="9"/>
-      <c r="Y18" s="10" t="str">
-        <f>_xlfn.CONCAT(BN15,BO15)</f>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="V18" s="7"/>
+      <c r="Y18" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>001110</v>
       </c>
       <c r="Z18" s="2"/>
@@ -3692,70 +3686,70 @@
       </c>
       <c r="AE18" s="2"/>
       <c r="AG18" s="2">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AI18" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="2">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="AK18" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="2">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="AI18" s="2">
+      <c r="AN18" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP18" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="AR18">
+        <f t="shared" si="17"/>
+        <v>4.1699250014423122</v>
+      </c>
+      <c r="AT18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AU18" t="str">
+        <f t="shared" si="5"/>
+        <v>2^4</v>
+      </c>
+      <c r="AV18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AX18" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="2">
+        <v>2^1</v>
+      </c>
+      <c r="AY18" t="str">
         <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="AK18" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL18" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM18" s="2">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AN18" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AP18" s="2">
-        <f>SUM(AI18:AN18)</f>
-        <v>18</v>
-      </c>
-      <c r="AR18">
-        <f t="shared" si="15"/>
-        <v>4.1699250014423122</v>
-      </c>
-      <c r="AT18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AU18" t="str">
-        <f t="shared" si="3"/>
-        <v>2^4</v>
-      </c>
-      <c r="AV18" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AW18" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AX18" t="str">
-        <f t="shared" si="6"/>
-        <v>2^1</v>
-      </c>
-      <c r="AY18" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AZ18">
         <v>13</v>
       </c>
       <c r="BN18" s="2" t="str">
-        <f t="shared" ref="BN18:BN24" si="17">"010"</f>
+        <f t="shared" ref="BN18:BN24" si="19">"010"</f>
         <v>010</v>
       </c>
       <c r="BO18" s="2" t="str">
@@ -3764,26 +3758,26 @@
       </c>
     </row>
     <row r="19" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="V19" s="9"/>
-      <c r="Y19" s="10" t="str">
-        <f>_xlfn.CONCAT(BN16,BO16)</f>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="V19" s="7"/>
+      <c r="Y19" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>001111</v>
       </c>
       <c r="Z19" s="2">
@@ -3797,70 +3791,70 @@
       </c>
       <c r="AE19" s="2"/>
       <c r="AG19" s="2">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AI19" s="2">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="AJ19" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM19" s="2">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="AI19" s="2">
+      <c r="AN19" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP19" s="2">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="AR19">
+        <f t="shared" si="17"/>
+        <v>5.08746284125034</v>
+      </c>
+      <c r="AT19" t="str">
+        <f t="shared" si="4"/>
+        <v>2^5</v>
+      </c>
+      <c r="AU19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AX19" t="str">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="AJ19" s="2">
+        <v>2^1</v>
+      </c>
+      <c r="AY19" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK19" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL19" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM19" s="2">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AN19" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AP19" s="2">
-        <f>SUM(AI19:AN19)</f>
-        <v>34</v>
-      </c>
-      <c r="AR19">
-        <f t="shared" si="15"/>
-        <v>5.08746284125034</v>
-      </c>
-      <c r="AT19" t="str">
-        <f t="shared" si="2"/>
-        <v>2^5</v>
-      </c>
-      <c r="AU19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV19" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AW19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AX19" t="str">
-        <f t="shared" si="6"/>
-        <v>2^1</v>
-      </c>
-      <c r="AY19" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AZ19">
         <v>14</v>
       </c>
       <c r="BN19" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>010</v>
       </c>
       <c r="BO19" s="2" t="str">
@@ -3888,9 +3882,9 @@
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="16"/>
-      <c r="V20" s="9"/>
-      <c r="Y20" s="10" t="str">
-        <f>_xlfn.CONCAT(BN17,BO17)</f>
+      <c r="V20" s="7"/>
+      <c r="Y20" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>010000</v>
       </c>
       <c r="Z20" s="2"/>
@@ -3904,70 +3898,70 @@
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AG20" s="2">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AI20" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK20" s="2">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AL20" s="2">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AM20" s="2">
         <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="AI20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP20" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AR20">
+        <f t="shared" si="17"/>
+        <v>3.5849625007211565</v>
+      </c>
+      <c r="AT20" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AU20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV20" t="str">
+        <f t="shared" si="6"/>
+        <v>2^3</v>
+      </c>
+      <c r="AW20" t="str">
+        <f t="shared" si="7"/>
+        <v>2^2</v>
+      </c>
+      <c r="AX20" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="2">
+        <v/>
+      </c>
+      <c r="AY20" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK20" s="2">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AL20" s="2">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AM20" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN20" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AP20" s="2">
-        <f>SUM(AI20:AN20)</f>
-        <v>12</v>
-      </c>
-      <c r="AR20">
-        <f t="shared" si="15"/>
-        <v>3.5849625007211565</v>
-      </c>
-      <c r="AT20" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AU20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV20" t="str">
-        <f t="shared" si="4"/>
-        <v>2^3</v>
-      </c>
-      <c r="AW20" t="str">
-        <f t="shared" si="5"/>
-        <v>2^2</v>
-      </c>
-      <c r="AX20" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AY20" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AZ20">
         <v>15</v>
       </c>
       <c r="BN20" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>010</v>
       </c>
       <c r="BO20" s="2" t="str">
@@ -3995,9 +3989,9 @@
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="16"/>
-      <c r="V21" s="9"/>
-      <c r="Y21" s="10" t="str">
-        <f>_xlfn.CONCAT(BN18,BO18)</f>
+      <c r="V21" s="7"/>
+      <c r="Y21" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>010001</v>
       </c>
       <c r="Z21" s="2"/>
@@ -4011,70 +4005,70 @@
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AG21" s="2">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AI21" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="2">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="AK21" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="2">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AM21" s="2">
         <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="AI21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP21" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="AR21">
+        <f t="shared" si="17"/>
+        <v>4.3219280948873626</v>
+      </c>
+      <c r="AT21" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AU21" t="str">
+        <f t="shared" si="5"/>
+        <v>2^4</v>
+      </c>
+      <c r="AV21" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW21" t="str">
+        <f t="shared" si="7"/>
+        <v>2^2</v>
+      </c>
+      <c r="AX21" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="2">
+        <v/>
+      </c>
+      <c r="AY21" t="str">
         <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="AK21" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL21" s="2">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AM21" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN21" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AP21" s="2">
-        <f>SUM(AI21:AN21)</f>
-        <v>20</v>
-      </c>
-      <c r="AR21">
-        <f t="shared" si="15"/>
-        <v>4.3219280948873626</v>
-      </c>
-      <c r="AT21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AU21" t="str">
-        <f t="shared" si="3"/>
-        <v>2^4</v>
-      </c>
-      <c r="AV21" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AW21" t="str">
-        <f t="shared" si="5"/>
-        <v>2^2</v>
-      </c>
-      <c r="AX21" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AY21" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AZ21">
         <v>16</v>
       </c>
       <c r="BN21" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>010</v>
       </c>
       <c r="BO21" s="2" t="str">
@@ -4102,9 +4096,9 @@
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
       <c r="L22" s="16"/>
-      <c r="V22" s="9"/>
-      <c r="Y22" s="10" t="str">
-        <f>_xlfn.CONCAT(BN19,BO19)</f>
+      <c r="V22" s="7"/>
+      <c r="Y22" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>010010</v>
       </c>
       <c r="Z22" s="2">
@@ -4118,70 +4112,70 @@
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AG22" s="2">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AI22" s="2">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="AJ22" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK22" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL22" s="2">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AM22" s="2">
         <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="AI22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP22" s="2">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="AR22">
+        <f t="shared" si="17"/>
+        <v>5.1699250014423122</v>
+      </c>
+      <c r="AT22" t="str">
+        <f t="shared" si="4"/>
+        <v>2^5</v>
+      </c>
+      <c r="AU22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW22" t="str">
+        <f t="shared" si="7"/>
+        <v>2^2</v>
+      </c>
+      <c r="AX22" t="str">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="AJ22" s="2">
+        <v/>
+      </c>
+      <c r="AY22" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK22" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL22" s="2">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AM22" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN22" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AP22" s="2">
-        <f>SUM(AI22:AN22)</f>
-        <v>36</v>
-      </c>
-      <c r="AR22">
-        <f t="shared" si="15"/>
-        <v>5.1699250014423122</v>
-      </c>
-      <c r="AT22" t="str">
-        <f t="shared" si="2"/>
-        <v>2^5</v>
-      </c>
-      <c r="AU22" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AW22" t="str">
-        <f t="shared" si="5"/>
-        <v>2^2</v>
-      </c>
-      <c r="AX22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AY22" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AZ22">
         <v>17</v>
       </c>
       <c r="BN22" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>010</v>
       </c>
       <c r="BO22" s="2" t="str">
@@ -4209,9 +4203,9 @@
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
       <c r="L23" s="16"/>
-      <c r="V23" s="9"/>
-      <c r="Y23" s="10" t="str">
-        <f>_xlfn.CONCAT(BN20,BO20)</f>
+      <c r="V23" s="7"/>
+      <c r="Y23" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>010011</v>
       </c>
       <c r="Z23" s="2"/>
@@ -4225,70 +4219,70 @@
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AG23" s="2">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AI23" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="2">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="AK23" s="2">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AL23" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM23" s="2">
         <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="AI23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP23" s="2">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="AR23">
+        <f t="shared" si="17"/>
+        <v>4.584962500721157</v>
+      </c>
+      <c r="AT23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AU23" t="str">
+        <f t="shared" si="5"/>
+        <v>2^4</v>
+      </c>
+      <c r="AV23" t="str">
+        <f t="shared" si="6"/>
+        <v>2^3</v>
+      </c>
+      <c r="AW23" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AX23" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="2">
+        <v/>
+      </c>
+      <c r="AY23" t="str">
         <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="AK23" s="2">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AL23" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM23" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN23" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AP23" s="2">
-        <f>SUM(AI23:AN23)</f>
-        <v>24</v>
-      </c>
-      <c r="AR23">
-        <f t="shared" si="15"/>
-        <v>4.584962500721157</v>
-      </c>
-      <c r="AT23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AU23" t="str">
-        <f t="shared" si="3"/>
-        <v>2^4</v>
-      </c>
-      <c r="AV23" t="str">
-        <f t="shared" si="4"/>
-        <v>2^3</v>
-      </c>
-      <c r="AW23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AX23" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AY23" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AZ23">
         <v>18</v>
       </c>
       <c r="BN23" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>010</v>
       </c>
       <c r="BO23" s="2" t="str">
@@ -4300,7 +4294,7 @@
       <c r="A24" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>85</v>
       </c>
       <c r="C24" s="17" t="s">
@@ -4318,9 +4312,9 @@
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="16"/>
-      <c r="V24" s="9"/>
-      <c r="Y24" s="10" t="str">
-        <f>_xlfn.CONCAT(BN21,BO21)</f>
+      <c r="V24" s="7"/>
+      <c r="Y24" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>010100</v>
       </c>
       <c r="Z24" s="2">
@@ -4334,70 +4328,70 @@
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AG24" s="2">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AI24" s="2">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="AJ24" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK24" s="2">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AL24" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM24" s="2">
         <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="AI24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP24" s="2">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="AR24">
+        <f t="shared" si="17"/>
+        <v>5.3219280948873626</v>
+      </c>
+      <c r="AT24" t="str">
+        <f t="shared" si="4"/>
+        <v>2^5</v>
+      </c>
+      <c r="AU24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV24" t="str">
+        <f t="shared" si="6"/>
+        <v>2^3</v>
+      </c>
+      <c r="AW24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AX24" t="str">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="AJ24" s="2">
+        <v/>
+      </c>
+      <c r="AY24" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK24" s="2">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AL24" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM24" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN24" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AP24" s="2">
-        <f>SUM(AI24:AN24)</f>
-        <v>40</v>
-      </c>
-      <c r="AR24">
-        <f t="shared" si="15"/>
-        <v>5.3219280948873626</v>
-      </c>
-      <c r="AT24" t="str">
-        <f t="shared" si="2"/>
-        <v>2^5</v>
-      </c>
-      <c r="AU24" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV24" t="str">
-        <f t="shared" si="4"/>
-        <v>2^3</v>
-      </c>
-      <c r="AW24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AX24" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AY24" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AZ24">
         <v>19</v>
       </c>
       <c r="BN24" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>010</v>
       </c>
       <c r="BO24" s="2" t="str">
@@ -4406,10 +4400,10 @@
       </c>
     </row>
     <row r="25" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="18"/>
@@ -4423,9 +4417,9 @@
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="16"/>
-      <c r="V25" s="9"/>
-      <c r="Y25" s="10" t="str">
-        <f>_xlfn.CONCAT(BN22,BO22)</f>
+      <c r="V25" s="7"/>
+      <c r="Y25" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>010101</v>
       </c>
       <c r="Z25" s="2">
@@ -4439,63 +4433,63 @@
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AG25" s="2">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AI25" s="2">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="AJ25" s="2">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="AK25" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL25" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM25" s="2">
         <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="AI25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP25" s="2">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="AR25">
+        <f t="shared" si="17"/>
+        <v>5.584962500721157</v>
+      </c>
+      <c r="AT25" t="str">
+        <f t="shared" si="4"/>
+        <v>2^5</v>
+      </c>
+      <c r="AU25" t="str">
+        <f t="shared" si="5"/>
+        <v>2^4</v>
+      </c>
+      <c r="AV25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AX25" t="str">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="AJ25" s="2">
+        <v/>
+      </c>
+      <c r="AY25" t="str">
         <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="AK25" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL25" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM25" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN25" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AP25" s="2">
-        <f>SUM(AI25:AN25)</f>
-        <v>48</v>
-      </c>
-      <c r="AR25">
-        <f t="shared" si="15"/>
-        <v>5.584962500721157</v>
-      </c>
-      <c r="AT25" t="str">
-        <f t="shared" si="2"/>
-        <v>2^5</v>
-      </c>
-      <c r="AU25" t="str">
-        <f t="shared" si="3"/>
-        <v>2^4</v>
-      </c>
-      <c r="AV25" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AW25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AX25" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AY25" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AZ25">
@@ -4511,7 +4505,7 @@
       </c>
     </row>
     <row r="26" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -4528,9 +4522,9 @@
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="16"/>
-      <c r="V26" s="9"/>
-      <c r="Y26" s="10" t="str">
-        <f>_xlfn.CONCAT(BN23,BO23)</f>
+      <c r="V26" s="7"/>
+      <c r="Y26" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>010110</v>
       </c>
       <c r="Z26" s="2"/>
@@ -4546,70 +4540,70 @@
         <v>1</v>
       </c>
       <c r="AG26" s="2">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AI26" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK26" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL26" s="2">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AM26" s="2">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="AI26" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN26" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP26" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AR26">
+        <f t="shared" si="17"/>
+        <v>2.8073549220576042</v>
+      </c>
+      <c r="AT26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AU26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW26" t="str">
+        <f t="shared" si="7"/>
+        <v>2^2</v>
+      </c>
+      <c r="AX26" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="2">
+        <v>2^1</v>
+      </c>
+      <c r="AY26" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK26" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL26" s="2">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AM26" s="2">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AN26" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AP26" s="2">
-        <f>SUM(AI26:AN26)</f>
-        <v>7</v>
-      </c>
-      <c r="AR26">
-        <f t="shared" si="15"/>
-        <v>2.8073549220576042</v>
-      </c>
-      <c r="AT26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AU26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AW26" t="str">
-        <f t="shared" si="5"/>
-        <v>2^2</v>
-      </c>
-      <c r="AX26" t="str">
-        <f t="shared" si="6"/>
-        <v>2^1</v>
-      </c>
-      <c r="AY26" t="str">
-        <f t="shared" si="7"/>
         <v>2^0</v>
       </c>
       <c r="AZ26">
         <v>21</v>
       </c>
       <c r="BN26" s="2" t="str">
-        <f t="shared" ref="BN26:BN32" si="18">"011"</f>
+        <f t="shared" ref="BN26:BN32" si="20">"011"</f>
         <v>011</v>
       </c>
       <c r="BO26" s="2" t="str">
@@ -4618,7 +4612,7 @@
       </c>
     </row>
     <row r="27" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="6" t="s">
         <v>89</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -4637,9 +4631,9 @@
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="16"/>
-      <c r="V27" s="9"/>
-      <c r="Y27" s="10" t="str">
-        <f>_xlfn.CONCAT(BN24,BO24)</f>
+      <c r="V27" s="7"/>
+      <c r="Y27" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>010111</v>
       </c>
       <c r="Z27" s="2"/>
@@ -4655,70 +4649,70 @@
         <v>1</v>
       </c>
       <c r="AG27" s="2">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AI27" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK27" s="2">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AL27" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM27" s="2">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="AI27" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN27" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP27" s="2">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="AR27">
+        <f t="shared" si="17"/>
+        <v>3.4594316186372978</v>
+      </c>
+      <c r="AT27" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AU27" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV27" t="str">
+        <f t="shared" si="6"/>
+        <v>2^3</v>
+      </c>
+      <c r="AW27" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AX27" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="2">
+        <v>2^1</v>
+      </c>
+      <c r="AY27" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK27" s="2">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AL27" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM27" s="2">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AN27" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AP27" s="2">
-        <f>SUM(AI27:AN27)</f>
-        <v>11</v>
-      </c>
-      <c r="AR27">
-        <f t="shared" si="15"/>
-        <v>3.4594316186372978</v>
-      </c>
-      <c r="AT27" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AU27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV27" t="str">
-        <f t="shared" si="4"/>
-        <v>2^3</v>
-      </c>
-      <c r="AW27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AX27" t="str">
-        <f t="shared" si="6"/>
-        <v>2^1</v>
-      </c>
-      <c r="AY27" t="str">
-        <f t="shared" si="7"/>
         <v>2^0</v>
       </c>
       <c r="AZ27">
         <v>22</v>
       </c>
       <c r="BN27" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>011</v>
       </c>
       <c r="BO27" s="2" t="str">
@@ -4727,7 +4721,7 @@
       </c>
     </row>
     <row r="28" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="6" t="s">
         <v>90</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -4744,9 +4738,9 @@
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
       <c r="L28" s="16"/>
-      <c r="V28" s="9"/>
-      <c r="Y28" s="10" t="str">
-        <f>_xlfn.CONCAT(BN25,BO25)</f>
+      <c r="V28" s="7"/>
+      <c r="Y28" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>011000</v>
       </c>
       <c r="Z28" s="2"/>
@@ -4762,70 +4756,70 @@
         <v>1</v>
       </c>
       <c r="AG28" s="2">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AI28" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="2">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="AK28" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL28" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM28" s="2">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="AI28" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN28" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP28" s="2">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="AR28">
+        <f t="shared" si="17"/>
+        <v>4.2479275134435852</v>
+      </c>
+      <c r="AT28" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AU28" t="str">
+        <f t="shared" si="5"/>
+        <v>2^4</v>
+      </c>
+      <c r="AV28" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW28" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AX28" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="2">
+        <v>2^1</v>
+      </c>
+      <c r="AY28" t="str">
         <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="AK28" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL28" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM28" s="2">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AN28" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AP28" s="2">
-        <f>SUM(AI28:AN28)</f>
-        <v>19</v>
-      </c>
-      <c r="AR28">
-        <f t="shared" si="15"/>
-        <v>4.2479275134435852</v>
-      </c>
-      <c r="AT28" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AU28" t="str">
-        <f t="shared" si="3"/>
-        <v>2^4</v>
-      </c>
-      <c r="AV28" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AW28" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AX28" t="str">
-        <f t="shared" si="6"/>
-        <v>2^1</v>
-      </c>
-      <c r="AY28" t="str">
-        <f t="shared" si="7"/>
         <v>2^0</v>
       </c>
       <c r="AZ28">
         <v>23</v>
       </c>
       <c r="BN28" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>011</v>
       </c>
       <c r="BO28" s="2" t="str">
@@ -4834,17 +4828,17 @@
       </c>
     </row>
     <row r="29" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="V29" s="9"/>
-      <c r="Y29" s="10" t="str">
-        <f>_xlfn.CONCAT(BN26,BO26)</f>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="V29" s="7"/>
+      <c r="Y29" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>011001</v>
       </c>
       <c r="Z29" s="2">
@@ -4860,70 +4854,70 @@
         <v>1</v>
       </c>
       <c r="AG29" s="2">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AI29" s="2">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="AJ29" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK29" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL29" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM29" s="2">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="AI29" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN29" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP29" s="2">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="AR29">
+        <f t="shared" si="17"/>
+        <v>5.1292830169449664</v>
+      </c>
+      <c r="AT29" t="str">
+        <f t="shared" si="4"/>
+        <v>2^5</v>
+      </c>
+      <c r="AU29" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV29" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW29" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AX29" t="str">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="AJ29" s="2">
+        <v>2^1</v>
+      </c>
+      <c r="AY29" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK29" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL29" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM29" s="2">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AN29" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AP29" s="2">
-        <f>SUM(AI29:AN29)</f>
-        <v>35</v>
-      </c>
-      <c r="AR29">
-        <f t="shared" si="15"/>
-        <v>5.1292830169449664</v>
-      </c>
-      <c r="AT29" t="str">
-        <f t="shared" si="2"/>
-        <v>2^5</v>
-      </c>
-      <c r="AU29" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV29" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AW29" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AX29" t="str">
-        <f t="shared" si="6"/>
-        <v>2^1</v>
-      </c>
-      <c r="AY29" t="str">
-        <f t="shared" si="7"/>
         <v>2^0</v>
       </c>
       <c r="AZ29">
         <v>24</v>
       </c>
       <c r="BN29" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>011</v>
       </c>
       <c r="BO29" s="2" t="str">
@@ -4932,17 +4926,17 @@
       </c>
     </row>
     <row r="30" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="V30" s="9"/>
-      <c r="Y30" s="10" t="str">
-        <f>_xlfn.CONCAT(BN27,BO27)</f>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="V30" s="7"/>
+      <c r="Y30" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>011010</v>
       </c>
       <c r="Z30" s="2"/>
@@ -4958,70 +4952,70 @@
         <v>1</v>
       </c>
       <c r="AG30" s="2">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AI30" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK30" s="2">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AL30" s="2">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AM30" s="2">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="AI30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP30" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="AR30">
+        <f t="shared" si="17"/>
+        <v>3.7004397181410922</v>
+      </c>
+      <c r="AT30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AU30" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV30" t="str">
+        <f t="shared" si="6"/>
+        <v>2^3</v>
+      </c>
+      <c r="AW30" t="str">
+        <f t="shared" si="7"/>
+        <v>2^2</v>
+      </c>
+      <c r="AX30" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="2">
+        <v/>
+      </c>
+      <c r="AY30" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK30" s="2">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AL30" s="2">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AM30" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN30" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AP30" s="2">
-        <f>SUM(AI30:AN30)</f>
-        <v>13</v>
-      </c>
-      <c r="AR30">
-        <f t="shared" si="15"/>
-        <v>3.7004397181410922</v>
-      </c>
-      <c r="AT30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AU30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV30" t="str">
-        <f t="shared" si="4"/>
-        <v>2^3</v>
-      </c>
-      <c r="AW30" t="str">
-        <f t="shared" si="5"/>
-        <v>2^2</v>
-      </c>
-      <c r="AX30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AY30" t="str">
-        <f t="shared" si="7"/>
         <v>2^0</v>
       </c>
       <c r="AZ30">
         <v>25</v>
       </c>
       <c r="BN30" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>011</v>
       </c>
       <c r="BO30" s="2" t="str">
@@ -5030,17 +5024,17 @@
       </c>
     </row>
     <row r="31" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="V31" s="9"/>
-      <c r="Y31" s="10" t="str">
-        <f>_xlfn.CONCAT(BN28,BO28)</f>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="V31" s="7"/>
+      <c r="Y31" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>011011</v>
       </c>
       <c r="Z31" s="2"/>
@@ -5056,70 +5050,70 @@
         <v>1</v>
       </c>
       <c r="AG31" s="2">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AI31" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="2">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="AK31" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL31" s="2">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AM31" s="2">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="AI31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP31" s="2">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="AR31">
+        <f t="shared" si="17"/>
+        <v>4.3923174227787607</v>
+      </c>
+      <c r="AT31" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AU31" t="str">
+        <f t="shared" si="5"/>
+        <v>2^4</v>
+      </c>
+      <c r="AV31" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW31" t="str">
+        <f t="shared" si="7"/>
+        <v>2^2</v>
+      </c>
+      <c r="AX31" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="2">
+        <v/>
+      </c>
+      <c r="AY31" t="str">
         <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="AK31" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL31" s="2">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AM31" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN31" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AP31" s="2">
-        <f>SUM(AI31:AN31)</f>
-        <v>21</v>
-      </c>
-      <c r="AR31">
-        <f t="shared" si="15"/>
-        <v>4.3923174227787607</v>
-      </c>
-      <c r="AT31" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AU31" t="str">
-        <f t="shared" si="3"/>
-        <v>2^4</v>
-      </c>
-      <c r="AV31" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AW31" t="str">
-        <f t="shared" si="5"/>
-        <v>2^2</v>
-      </c>
-      <c r="AX31" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AY31" t="str">
-        <f t="shared" si="7"/>
         <v>2^0</v>
       </c>
       <c r="AZ31">
         <v>26</v>
       </c>
       <c r="BN31" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>011</v>
       </c>
       <c r="BO31" s="2" t="str">
@@ -5128,17 +5122,17 @@
       </c>
     </row>
     <row r="32" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="V32" s="9"/>
-      <c r="Y32" s="10" t="str">
-        <f>_xlfn.CONCAT(BN29,BO29)</f>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="V32" s="7"/>
+      <c r="Y32" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>011100</v>
       </c>
       <c r="Z32" s="2">
@@ -5154,70 +5148,70 @@
         <v>1</v>
       </c>
       <c r="AG32" s="2">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AI32" s="2">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="AJ32" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK32" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL32" s="2">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AM32" s="2">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="AI32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP32" s="2">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="AR32">
+        <f t="shared" si="17"/>
+        <v>5.2094533656289501</v>
+      </c>
+      <c r="AT32" t="str">
+        <f t="shared" si="4"/>
+        <v>2^5</v>
+      </c>
+      <c r="AU32" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV32" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW32" t="str">
+        <f t="shared" si="7"/>
+        <v>2^2</v>
+      </c>
+      <c r="AX32" t="str">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="AJ32" s="2">
+        <v/>
+      </c>
+      <c r="AY32" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK32" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL32" s="2">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AM32" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN32" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AP32" s="2">
-        <f>SUM(AI32:AN32)</f>
-        <v>37</v>
-      </c>
-      <c r="AR32">
-        <f t="shared" si="15"/>
-        <v>5.2094533656289501</v>
-      </c>
-      <c r="AT32" t="str">
-        <f t="shared" si="2"/>
-        <v>2^5</v>
-      </c>
-      <c r="AU32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV32" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AW32" t="str">
-        <f t="shared" si="5"/>
-        <v>2^2</v>
-      </c>
-      <c r="AX32" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AY32" t="str">
-        <f t="shared" si="7"/>
         <v>2^0</v>
       </c>
       <c r="AZ32">
         <v>27</v>
       </c>
       <c r="BN32" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>011</v>
       </c>
       <c r="BO32" s="2" t="str">
@@ -5226,17 +5220,17 @@
       </c>
     </row>
     <row r="33" spans="5:67" x14ac:dyDescent="0.25">
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="V33" s="9"/>
-      <c r="Y33" s="10" t="str">
-        <f>_xlfn.CONCAT(BN30,BO30)</f>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="V33" s="7"/>
+      <c r="Y33" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>011101</v>
       </c>
       <c r="Z33" s="2"/>
@@ -5252,63 +5246,63 @@
         <v>1</v>
       </c>
       <c r="AG33" s="2">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AI33" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="2">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="AK33" s="2">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AL33" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM33" s="2">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="AI33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP33" s="2">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="AR33">
+        <f t="shared" si="17"/>
+        <v>4.6438561897747244</v>
+      </c>
+      <c r="AT33" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AU33" t="str">
+        <f t="shared" si="5"/>
+        <v>2^4</v>
+      </c>
+      <c r="AV33" t="str">
+        <f t="shared" si="6"/>
+        <v>2^3</v>
+      </c>
+      <c r="AW33" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AX33" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="2">
+        <v/>
+      </c>
+      <c r="AY33" t="str">
         <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="AK33" s="2">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AL33" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM33" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN33" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AP33" s="2">
-        <f>SUM(AI33:AN33)</f>
-        <v>25</v>
-      </c>
-      <c r="AR33">
-        <f t="shared" si="15"/>
-        <v>4.6438561897747244</v>
-      </c>
-      <c r="AT33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AU33" t="str">
-        <f t="shared" si="3"/>
-        <v>2^4</v>
-      </c>
-      <c r="AV33" t="str">
-        <f t="shared" si="4"/>
-        <v>2^3</v>
-      </c>
-      <c r="AW33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AX33" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AY33" t="str">
-        <f t="shared" si="7"/>
         <v>2^0</v>
       </c>
       <c r="AZ33">
@@ -5324,9 +5318,9 @@
       </c>
     </row>
     <row r="34" spans="5:67" x14ac:dyDescent="0.25">
-      <c r="V34" s="9"/>
-      <c r="Y34" s="10" t="str">
-        <f>_xlfn.CONCAT(BN31,BO31)</f>
+      <c r="V34" s="7"/>
+      <c r="Y34" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>011110</v>
       </c>
       <c r="Z34" s="2">
@@ -5342,70 +5336,70 @@
         <v>1</v>
       </c>
       <c r="AG34" s="2">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AI34" s="2">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="AJ34" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK34" s="2">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AL34" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM34" s="2">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="AI34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP34" s="2">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="AR34">
+        <f t="shared" si="17"/>
+        <v>5.3575520046180838</v>
+      </c>
+      <c r="AT34" t="str">
+        <f t="shared" si="4"/>
+        <v>2^5</v>
+      </c>
+      <c r="AU34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV34" t="str">
+        <f t="shared" si="6"/>
+        <v>2^3</v>
+      </c>
+      <c r="AW34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AX34" t="str">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="AJ34" s="2">
+        <v/>
+      </c>
+      <c r="AY34" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK34" s="2">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AL34" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM34" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN34" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AP34" s="2">
-        <f>SUM(AI34:AN34)</f>
-        <v>41</v>
-      </c>
-      <c r="AR34">
-        <f t="shared" si="15"/>
-        <v>5.3575520046180838</v>
-      </c>
-      <c r="AT34" t="str">
-        <f t="shared" si="2"/>
-        <v>2^5</v>
-      </c>
-      <c r="AU34" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV34" t="str">
-        <f t="shared" si="4"/>
-        <v>2^3</v>
-      </c>
-      <c r="AW34" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AX34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AY34" t="str">
-        <f t="shared" si="7"/>
         <v>2^0</v>
       </c>
       <c r="AZ34">
         <v>29</v>
       </c>
       <c r="BN34" s="2" t="str">
-        <f t="shared" ref="BN34:BN40" si="19">"100"</f>
+        <f t="shared" ref="BN34:BN40" si="21">"100"</f>
         <v>100</v>
       </c>
       <c r="BO34" s="2" t="str">
@@ -5414,9 +5408,9 @@
       </c>
     </row>
     <row r="35" spans="5:67" x14ac:dyDescent="0.25">
-      <c r="V35" s="9"/>
-      <c r="Y35" s="10" t="str">
-        <f>_xlfn.CONCAT(BN32,BO32)</f>
+      <c r="V35" s="7"/>
+      <c r="Y35" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>011111</v>
       </c>
       <c r="Z35" s="2">
@@ -5432,70 +5426,70 @@
         <v>1</v>
       </c>
       <c r="AG35" s="2">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AI35" s="2">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="AJ35" s="2">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="AK35" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL35" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM35" s="2">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="AI35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP35" s="2">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="AR35">
+        <f t="shared" si="17"/>
+        <v>5.6147098441152083</v>
+      </c>
+      <c r="AT35" t="str">
+        <f t="shared" si="4"/>
+        <v>2^5</v>
+      </c>
+      <c r="AU35" t="str">
+        <f t="shared" si="5"/>
+        <v>2^4</v>
+      </c>
+      <c r="AV35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW35" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AX35" t="str">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="AJ35" s="2">
+        <v/>
+      </c>
+      <c r="AY35" t="str">
         <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="AK35" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL35" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM35" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN35" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AP35" s="2">
-        <f>SUM(AI35:AN35)</f>
-        <v>49</v>
-      </c>
-      <c r="AR35">
-        <f t="shared" si="15"/>
-        <v>5.6147098441152083</v>
-      </c>
-      <c r="AT35" t="str">
-        <f t="shared" si="2"/>
-        <v>2^5</v>
-      </c>
-      <c r="AU35" t="str">
-        <f t="shared" si="3"/>
-        <v>2^4</v>
-      </c>
-      <c r="AV35" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AW35" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AX35" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AY35" t="str">
-        <f t="shared" si="7"/>
         <v>2^0</v>
       </c>
       <c r="AZ35">
         <v>30</v>
       </c>
       <c r="BN35" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="BO35" s="2" t="str">
@@ -5504,9 +5498,9 @@
       </c>
     </row>
     <row r="36" spans="5:67" x14ac:dyDescent="0.25">
-      <c r="V36" s="9"/>
-      <c r="Y36" s="10" t="str">
-        <f>_xlfn.CONCAT(BN33,BO33)</f>
+      <c r="V36" s="7"/>
+      <c r="Y36" s="8" t="str">
+        <f t="shared" ref="Y36:Y67" si="22">_xlfn.CONCAT(BN33,BO33)</f>
         <v>100000</v>
       </c>
       <c r="Z36" s="2"/>
@@ -5522,70 +5516,70 @@
       </c>
       <c r="AE36" s="2"/>
       <c r="AG36" s="2">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AI36" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK36" s="2">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AL36" s="2">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AM36" s="2">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="AI36" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN36" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP36" s="2">
+        <f t="shared" ref="AP36:AP67" si="23">SUM(AI36:AN36)</f>
+        <v>14</v>
+      </c>
+      <c r="AR36">
+        <f t="shared" si="17"/>
+        <v>3.8073549220576037</v>
+      </c>
+      <c r="AT36" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AU36" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV36" t="str">
+        <f t="shared" si="6"/>
+        <v>2^3</v>
+      </c>
+      <c r="AW36" t="str">
+        <f t="shared" si="7"/>
+        <v>2^2</v>
+      </c>
+      <c r="AX36" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="2">
+        <v>2^1</v>
+      </c>
+      <c r="AY36" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK36" s="2">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AL36" s="2">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AM36" s="2">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AN36" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AP36" s="2">
-        <f>SUM(AI36:AN36)</f>
-        <v>14</v>
-      </c>
-      <c r="AR36">
-        <f t="shared" si="15"/>
-        <v>3.8073549220576037</v>
-      </c>
-      <c r="AT36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AU36" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV36" t="str">
-        <f t="shared" si="4"/>
-        <v>2^3</v>
-      </c>
-      <c r="AW36" t="str">
-        <f t="shared" si="5"/>
-        <v>2^2</v>
-      </c>
-      <c r="AX36" t="str">
-        <f t="shared" si="6"/>
-        <v>2^1</v>
-      </c>
-      <c r="AY36" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AZ36">
         <v>31</v>
       </c>
       <c r="BN36" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="BO36" s="2" t="str">
@@ -5594,9 +5588,9 @@
       </c>
     </row>
     <row r="37" spans="5:67" x14ac:dyDescent="0.25">
-      <c r="V37" s="9"/>
-      <c r="Y37" s="10" t="str">
-        <f>_xlfn.CONCAT(BN34,BO34)</f>
+      <c r="V37" s="7"/>
+      <c r="Y37" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>100001</v>
       </c>
       <c r="Z37" s="2"/>
@@ -5612,70 +5606,70 @@
       </c>
       <c r="AE37" s="2"/>
       <c r="AG37" s="2">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AI37" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="2">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="AK37" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL37" s="2">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AM37" s="2">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="AI37" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN37" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP37" s="2">
+        <f t="shared" si="23"/>
+        <v>22</v>
+      </c>
+      <c r="AR37">
+        <f t="shared" si="17"/>
+        <v>4.4594316186372973</v>
+      </c>
+      <c r="AT37" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AU37" t="str">
+        <f t="shared" si="5"/>
+        <v>2^4</v>
+      </c>
+      <c r="AV37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW37" t="str">
+        <f t="shared" si="7"/>
+        <v>2^2</v>
+      </c>
+      <c r="AX37" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="2">
+        <v>2^1</v>
+      </c>
+      <c r="AY37" t="str">
         <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="AK37" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL37" s="2">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AM37" s="2">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AN37" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AP37" s="2">
-        <f>SUM(AI37:AN37)</f>
-        <v>22</v>
-      </c>
-      <c r="AR37">
-        <f t="shared" si="15"/>
-        <v>4.4594316186372973</v>
-      </c>
-      <c r="AT37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AU37" t="str">
-        <f t="shared" si="3"/>
-        <v>2^4</v>
-      </c>
-      <c r="AV37" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AW37" t="str">
-        <f t="shared" si="5"/>
-        <v>2^2</v>
-      </c>
-      <c r="AX37" t="str">
-        <f t="shared" si="6"/>
-        <v>2^1</v>
-      </c>
-      <c r="AY37" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AZ37">
         <v>32</v>
       </c>
       <c r="BN37" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="BO37" s="2" t="str">
@@ -5684,9 +5678,9 @@
       </c>
     </row>
     <row r="38" spans="5:67" x14ac:dyDescent="0.25">
-      <c r="V38" s="9"/>
-      <c r="Y38" s="10" t="str">
-        <f>_xlfn.CONCAT(BN35,BO35)</f>
+      <c r="V38" s="7"/>
+      <c r="Y38" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>100010</v>
       </c>
       <c r="Z38" s="2">
@@ -5702,70 +5696,70 @@
       </c>
       <c r="AE38" s="2"/>
       <c r="AG38" s="2">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AI38" s="2">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="AJ38" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK38" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL38" s="2">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AM38" s="2">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="AI38" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN38" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP38" s="2">
+        <f t="shared" si="23"/>
+        <v>38</v>
+      </c>
+      <c r="AR38">
+        <f t="shared" si="17"/>
+        <v>5.2479275134435852</v>
+      </c>
+      <c r="AT38" t="str">
+        <f t="shared" si="4"/>
+        <v>2^5</v>
+      </c>
+      <c r="AU38" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV38" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW38" t="str">
+        <f t="shared" si="7"/>
+        <v>2^2</v>
+      </c>
+      <c r="AX38" t="str">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="AJ38" s="2">
+        <v>2^1</v>
+      </c>
+      <c r="AY38" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK38" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL38" s="2">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AM38" s="2">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AN38" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AP38" s="2">
-        <f>SUM(AI38:AN38)</f>
-        <v>38</v>
-      </c>
-      <c r="AR38">
-        <f t="shared" si="15"/>
-        <v>5.2479275134435852</v>
-      </c>
-      <c r="AT38" t="str">
-        <f t="shared" si="2"/>
-        <v>2^5</v>
-      </c>
-      <c r="AU38" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AW38" t="str">
-        <f t="shared" si="5"/>
-        <v>2^2</v>
-      </c>
-      <c r="AX38" t="str">
-        <f t="shared" si="6"/>
-        <v>2^1</v>
-      </c>
-      <c r="AY38" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AZ38">
         <v>33</v>
       </c>
       <c r="BN38" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="BO38" s="2" t="str">
@@ -5774,9 +5768,9 @@
       </c>
     </row>
     <row r="39" spans="5:67" x14ac:dyDescent="0.25">
-      <c r="V39" s="9"/>
-      <c r="Y39" s="10" t="str">
-        <f>_xlfn.CONCAT(BN36,BO36)</f>
+      <c r="V39" s="7"/>
+      <c r="Y39" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>100011</v>
       </c>
       <c r="Z39" s="2"/>
@@ -5792,70 +5786,70 @@
       </c>
       <c r="AE39" s="2"/>
       <c r="AG39" s="2">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AI39" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="2">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="AK39" s="2">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AL39" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM39" s="2">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="AI39" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN39" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP39" s="2">
+        <f t="shared" si="23"/>
+        <v>26</v>
+      </c>
+      <c r="AR39">
+        <f t="shared" si="17"/>
+        <v>4.7004397181410926</v>
+      </c>
+      <c r="AT39" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AU39" t="str">
+        <f t="shared" si="5"/>
+        <v>2^4</v>
+      </c>
+      <c r="AV39" t="str">
+        <f t="shared" si="6"/>
+        <v>2^3</v>
+      </c>
+      <c r="AW39" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AX39" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="2">
+        <v>2^1</v>
+      </c>
+      <c r="AY39" t="str">
         <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="AK39" s="2">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AL39" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM39" s="2">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AN39" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AP39" s="2">
-        <f>SUM(AI39:AN39)</f>
-        <v>26</v>
-      </c>
-      <c r="AR39">
-        <f t="shared" si="15"/>
-        <v>4.7004397181410926</v>
-      </c>
-      <c r="AT39" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AU39" t="str">
-        <f t="shared" si="3"/>
-        <v>2^4</v>
-      </c>
-      <c r="AV39" t="str">
-        <f t="shared" si="4"/>
-        <v>2^3</v>
-      </c>
-      <c r="AW39" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AX39" t="str">
-        <f t="shared" si="6"/>
-        <v>2^1</v>
-      </c>
-      <c r="AY39" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AZ39">
         <v>34</v>
       </c>
       <c r="BN39" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="BO39" s="2" t="str">
@@ -5864,9 +5858,9 @@
       </c>
     </row>
     <row r="40" spans="5:67" x14ac:dyDescent="0.25">
-      <c r="V40" s="9"/>
-      <c r="Y40" s="10" t="str">
-        <f>_xlfn.CONCAT(BN37,BO37)</f>
+      <c r="V40" s="7"/>
+      <c r="Y40" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>100100</v>
       </c>
       <c r="Z40" s="2">
@@ -5882,70 +5876,70 @@
       </c>
       <c r="AE40" s="2"/>
       <c r="AG40" s="2">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AI40" s="2">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="AJ40" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK40" s="2">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AL40" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM40" s="2">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="AI40" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN40" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP40" s="2">
+        <f t="shared" si="23"/>
+        <v>42</v>
+      </c>
+      <c r="AR40">
+        <f t="shared" si="17"/>
+        <v>5.3923174227787607</v>
+      </c>
+      <c r="AT40" t="str">
+        <f t="shared" si="4"/>
+        <v>2^5</v>
+      </c>
+      <c r="AU40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV40" t="str">
+        <f t="shared" si="6"/>
+        <v>2^3</v>
+      </c>
+      <c r="AW40" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AX40" t="str">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="AJ40" s="2">
+        <v>2^1</v>
+      </c>
+      <c r="AY40" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK40" s="2">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AL40" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM40" s="2">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AN40" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AP40" s="2">
-        <f>SUM(AI40:AN40)</f>
-        <v>42</v>
-      </c>
-      <c r="AR40">
-        <f t="shared" si="15"/>
-        <v>5.3923174227787607</v>
-      </c>
-      <c r="AT40" t="str">
-        <f t="shared" si="2"/>
-        <v>2^5</v>
-      </c>
-      <c r="AU40" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV40" t="str">
-        <f t="shared" si="4"/>
-        <v>2^3</v>
-      </c>
-      <c r="AW40" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AX40" t="str">
-        <f t="shared" si="6"/>
-        <v>2^1</v>
-      </c>
-      <c r="AY40" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AZ40">
         <v>35</v>
       </c>
       <c r="BN40" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="BO40" s="2" t="str">
@@ -5954,9 +5948,9 @@
       </c>
     </row>
     <row r="41" spans="5:67" x14ac:dyDescent="0.25">
-      <c r="V41" s="9"/>
-      <c r="Y41" s="10" t="str">
-        <f>_xlfn.CONCAT(BN38,BO38)</f>
+      <c r="V41" s="7"/>
+      <c r="Y41" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>100101</v>
       </c>
       <c r="Z41" s="2">
@@ -5972,63 +5966,63 @@
       </c>
       <c r="AE41" s="2"/>
       <c r="AG41" s="2">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AI41" s="2">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="AJ41" s="2">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="AK41" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL41" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM41" s="2">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="AI41" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN41" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP41" s="2">
+        <f t="shared" si="23"/>
+        <v>50</v>
+      </c>
+      <c r="AR41">
+        <f t="shared" si="17"/>
+        <v>5.6438561897747244</v>
+      </c>
+      <c r="AT41" t="str">
+        <f t="shared" si="4"/>
+        <v>2^5</v>
+      </c>
+      <c r="AU41" t="str">
+        <f t="shared" si="5"/>
+        <v>2^4</v>
+      </c>
+      <c r="AV41" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW41" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AX41" t="str">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="AJ41" s="2">
+        <v>2^1</v>
+      </c>
+      <c r="AY41" t="str">
         <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="AK41" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL41" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM41" s="2">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AN41" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AP41" s="2">
-        <f>SUM(AI41:AN41)</f>
-        <v>50</v>
-      </c>
-      <c r="AR41">
-        <f t="shared" si="15"/>
-        <v>5.6438561897747244</v>
-      </c>
-      <c r="AT41" t="str">
-        <f t="shared" si="2"/>
-        <v>2^5</v>
-      </c>
-      <c r="AU41" t="str">
-        <f t="shared" si="3"/>
-        <v>2^4</v>
-      </c>
-      <c r="AV41" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AW41" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AX41" t="str">
-        <f t="shared" si="6"/>
-        <v>2^1</v>
-      </c>
-      <c r="AY41" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AZ41">
@@ -6044,9 +6038,9 @@
       </c>
     </row>
     <row r="42" spans="5:67" x14ac:dyDescent="0.25">
-      <c r="V42" s="9"/>
-      <c r="Y42" s="10" t="str">
-        <f>_xlfn.CONCAT(BN39,BO39)</f>
+      <c r="V42" s="7"/>
+      <c r="Y42" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>100110</v>
       </c>
       <c r="Z42" s="2"/>
@@ -6062,70 +6056,70 @@
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
       <c r="AG42" s="2">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AI42" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="2">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="AK42" s="2">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AL42" s="2">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AM42" s="2">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="AI42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP42" s="2">
+        <f t="shared" si="23"/>
+        <v>28</v>
+      </c>
+      <c r="AR42">
+        <f t="shared" si="17"/>
+        <v>4.8073549220576037</v>
+      </c>
+      <c r="AT42" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AU42" t="str">
+        <f t="shared" si="5"/>
+        <v>2^4</v>
+      </c>
+      <c r="AV42" t="str">
+        <f t="shared" si="6"/>
+        <v>2^3</v>
+      </c>
+      <c r="AW42" t="str">
+        <f t="shared" si="7"/>
+        <v>2^2</v>
+      </c>
+      <c r="AX42" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="2">
+        <v/>
+      </c>
+      <c r="AY42" t="str">
         <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="AK42" s="2">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AL42" s="2">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AM42" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN42" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AP42" s="2">
-        <f>SUM(AI42:AN42)</f>
-        <v>28</v>
-      </c>
-      <c r="AR42">
-        <f t="shared" si="15"/>
-        <v>4.8073549220576037</v>
-      </c>
-      <c r="AT42" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AU42" t="str">
-        <f t="shared" si="3"/>
-        <v>2^4</v>
-      </c>
-      <c r="AV42" t="str">
-        <f t="shared" si="4"/>
-        <v>2^3</v>
-      </c>
-      <c r="AW42" t="str">
-        <f t="shared" si="5"/>
-        <v>2^2</v>
-      </c>
-      <c r="AX42" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AY42" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AZ42">
         <v>37</v>
       </c>
       <c r="BN42" s="2" t="str">
-        <f t="shared" ref="BN42:BN48" si="20">"101"</f>
+        <f t="shared" ref="BN42:BN48" si="24">"101"</f>
         <v>101</v>
       </c>
       <c r="BO42" s="2" t="str">
@@ -6134,9 +6128,9 @@
       </c>
     </row>
     <row r="43" spans="5:67" x14ac:dyDescent="0.25">
-      <c r="V43" s="9"/>
-      <c r="Y43" s="10" t="str">
-        <f>_xlfn.CONCAT(BN40,BO40)</f>
+      <c r="V43" s="7"/>
+      <c r="Y43" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>100111</v>
       </c>
       <c r="Z43" s="2">
@@ -6152,70 +6146,70 @@
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
       <c r="AG43" s="2">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AI43" s="2">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="AJ43" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK43" s="2">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AL43" s="2">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AM43" s="2">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="AI43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP43" s="2">
+        <f t="shared" si="23"/>
+        <v>44</v>
+      </c>
+      <c r="AR43">
+        <f t="shared" si="17"/>
+        <v>5.4594316186372973</v>
+      </c>
+      <c r="AT43" t="str">
+        <f t="shared" si="4"/>
+        <v>2^5</v>
+      </c>
+      <c r="AU43" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV43" t="str">
+        <f t="shared" si="6"/>
+        <v>2^3</v>
+      </c>
+      <c r="AW43" t="str">
+        <f t="shared" si="7"/>
+        <v>2^2</v>
+      </c>
+      <c r="AX43" t="str">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="AJ43" s="2">
+        <v/>
+      </c>
+      <c r="AY43" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK43" s="2">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AL43" s="2">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AM43" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN43" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AP43" s="2">
-        <f>SUM(AI43:AN43)</f>
-        <v>44</v>
-      </c>
-      <c r="AR43">
-        <f t="shared" si="15"/>
-        <v>5.4594316186372973</v>
-      </c>
-      <c r="AT43" t="str">
-        <f t="shared" si="2"/>
-        <v>2^5</v>
-      </c>
-      <c r="AU43" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV43" t="str">
-        <f t="shared" si="4"/>
-        <v>2^3</v>
-      </c>
-      <c r="AW43" t="str">
-        <f t="shared" si="5"/>
-        <v>2^2</v>
-      </c>
-      <c r="AX43" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AY43" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AZ43">
         <v>38</v>
       </c>
       <c r="BN43" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>101</v>
       </c>
       <c r="BO43" s="2" t="str">
@@ -6224,9 +6218,9 @@
       </c>
     </row>
     <row r="44" spans="5:67" x14ac:dyDescent="0.25">
-      <c r="V44" s="9"/>
-      <c r="Y44" s="10" t="str">
-        <f>_xlfn.CONCAT(BN41,BO41)</f>
+      <c r="V44" s="7"/>
+      <c r="Y44" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>101000</v>
       </c>
       <c r="Z44" s="2">
@@ -6242,70 +6236,70 @@
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
       <c r="AG44" s="2">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AI44" s="2">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="AJ44" s="2">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="AK44" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL44" s="2">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AM44" s="2">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="AI44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP44" s="2">
+        <f t="shared" si="23"/>
+        <v>52</v>
+      </c>
+      <c r="AR44">
+        <f t="shared" si="17"/>
+        <v>5.7004397181410926</v>
+      </c>
+      <c r="AT44" t="str">
+        <f t="shared" si="4"/>
+        <v>2^5</v>
+      </c>
+      <c r="AU44" t="str">
+        <f t="shared" si="5"/>
+        <v>2^4</v>
+      </c>
+      <c r="AV44" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW44" t="str">
+        <f t="shared" si="7"/>
+        <v>2^2</v>
+      </c>
+      <c r="AX44" t="str">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="AJ44" s="2">
+        <v/>
+      </c>
+      <c r="AY44" t="str">
         <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="AK44" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL44" s="2">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AM44" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN44" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AP44" s="2">
-        <f>SUM(AI44:AN44)</f>
-        <v>52</v>
-      </c>
-      <c r="AR44">
-        <f t="shared" si="15"/>
-        <v>5.7004397181410926</v>
-      </c>
-      <c r="AT44" t="str">
-        <f t="shared" si="2"/>
-        <v>2^5</v>
-      </c>
-      <c r="AU44" t="str">
-        <f t="shared" si="3"/>
-        <v>2^4</v>
-      </c>
-      <c r="AV44" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AW44" t="str">
-        <f t="shared" si="5"/>
-        <v>2^2</v>
-      </c>
-      <c r="AX44" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AY44" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AZ44">
         <v>39</v>
       </c>
       <c r="BN44" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>101</v>
       </c>
       <c r="BO44" s="2" t="str">
@@ -6314,9 +6308,9 @@
       </c>
     </row>
     <row r="45" spans="5:67" x14ac:dyDescent="0.25">
-      <c r="V45" s="9"/>
-      <c r="Y45" s="10" t="str">
-        <f>_xlfn.CONCAT(BN42,BO42)</f>
+      <c r="V45" s="7"/>
+      <c r="Y45" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>101001</v>
       </c>
       <c r="Z45" s="2">
@@ -6332,70 +6326,70 @@
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
       <c r="AG45" s="2">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AI45" s="2">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="AJ45" s="2">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="AK45" s="2">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AL45" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM45" s="2">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="AI45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN45" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP45" s="2">
+        <f t="shared" si="23"/>
+        <v>56</v>
+      </c>
+      <c r="AR45">
+        <f t="shared" si="17"/>
+        <v>5.8073549220576046</v>
+      </c>
+      <c r="AT45" t="str">
+        <f t="shared" si="4"/>
+        <v>2^5</v>
+      </c>
+      <c r="AU45" t="str">
+        <f t="shared" si="5"/>
+        <v>2^4</v>
+      </c>
+      <c r="AV45" t="str">
+        <f t="shared" si="6"/>
+        <v>2^3</v>
+      </c>
+      <c r="AW45" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AX45" t="str">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="AJ45" s="2">
+        <v/>
+      </c>
+      <c r="AY45" t="str">
         <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="AK45" s="2">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AL45" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM45" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN45" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AP45" s="2">
-        <f>SUM(AI45:AN45)</f>
-        <v>56</v>
-      </c>
-      <c r="AR45">
-        <f t="shared" si="15"/>
-        <v>5.8073549220576046</v>
-      </c>
-      <c r="AT45" t="str">
-        <f t="shared" si="2"/>
-        <v>2^5</v>
-      </c>
-      <c r="AU45" t="str">
-        <f t="shared" si="3"/>
-        <v>2^4</v>
-      </c>
-      <c r="AV45" t="str">
-        <f t="shared" si="4"/>
-        <v>2^3</v>
-      </c>
-      <c r="AW45" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AX45" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AY45" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AZ45">
         <v>40</v>
       </c>
       <c r="BN45" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>101</v>
       </c>
       <c r="BO45" s="2" t="str">
@@ -6404,9 +6398,9 @@
       </c>
     </row>
     <row r="46" spans="5:67" x14ac:dyDescent="0.25">
-      <c r="V46" s="9"/>
-      <c r="Y46" s="10" t="str">
-        <f>_xlfn.CONCAT(BN43,BO43)</f>
+      <c r="V46" s="7"/>
+      <c r="Y46" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>101010</v>
       </c>
       <c r="Z46" s="2"/>
@@ -6424,70 +6418,70 @@
         <v>1</v>
       </c>
       <c r="AG46" s="2">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="AI46" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK46" s="2">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AL46" s="2">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AM46" s="2">
         <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="AI46" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN46" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP46" s="2">
+        <f t="shared" si="23"/>
+        <v>15</v>
+      </c>
+      <c r="AR46">
+        <f t="shared" si="17"/>
+        <v>3.9068905956085187</v>
+      </c>
+      <c r="AT46" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AU46" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV46" t="str">
+        <f t="shared" si="6"/>
+        <v>2^3</v>
+      </c>
+      <c r="AW46" t="str">
+        <f t="shared" si="7"/>
+        <v>2^2</v>
+      </c>
+      <c r="AX46" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ46" s="2">
+        <v>2^1</v>
+      </c>
+      <c r="AY46" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK46" s="2">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AL46" s="2">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AM46" s="2">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AN46" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AP46" s="2">
-        <f>SUM(AI46:AN46)</f>
-        <v>15</v>
-      </c>
-      <c r="AR46">
-        <f t="shared" si="15"/>
-        <v>3.9068905956085187</v>
-      </c>
-      <c r="AT46" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AU46" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV46" t="str">
-        <f t="shared" si="4"/>
-        <v>2^3</v>
-      </c>
-      <c r="AW46" t="str">
-        <f t="shared" si="5"/>
-        <v>2^2</v>
-      </c>
-      <c r="AX46" t="str">
-        <f t="shared" si="6"/>
-        <v>2^1</v>
-      </c>
-      <c r="AY46" t="str">
-        <f t="shared" si="7"/>
         <v>2^0</v>
       </c>
       <c r="AZ46">
         <v>41</v>
       </c>
       <c r="BN46" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>101</v>
       </c>
       <c r="BO46" s="2" t="str">
@@ -6496,9 +6490,9 @@
       </c>
     </row>
     <row r="47" spans="5:67" x14ac:dyDescent="0.25">
-      <c r="V47" s="9"/>
-      <c r="Y47" s="10" t="str">
-        <f>_xlfn.CONCAT(BN44,BO44)</f>
+      <c r="V47" s="7"/>
+      <c r="Y47" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>101011</v>
       </c>
       <c r="Z47" s="2"/>
@@ -6516,70 +6510,70 @@
         <v>1</v>
       </c>
       <c r="AG47" s="2">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="AI47" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="2">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="AK47" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL47" s="2">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AM47" s="2">
         <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="AI47" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN47" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP47" s="2">
+        <f t="shared" si="23"/>
+        <v>23</v>
+      </c>
+      <c r="AR47">
+        <f t="shared" si="17"/>
+        <v>4.5235619560570131</v>
+      </c>
+      <c r="AT47" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AU47" t="str">
+        <f t="shared" si="5"/>
+        <v>2^4</v>
+      </c>
+      <c r="AV47" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW47" t="str">
+        <f t="shared" si="7"/>
+        <v>2^2</v>
+      </c>
+      <c r="AX47" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ47" s="2">
+        <v>2^1</v>
+      </c>
+      <c r="AY47" t="str">
         <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="AK47" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL47" s="2">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AM47" s="2">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AN47" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AP47" s="2">
-        <f>SUM(AI47:AN47)</f>
-        <v>23</v>
-      </c>
-      <c r="AR47">
-        <f t="shared" si="15"/>
-        <v>4.5235619560570131</v>
-      </c>
-      <c r="AT47" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AU47" t="str">
-        <f t="shared" si="3"/>
-        <v>2^4</v>
-      </c>
-      <c r="AV47" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AW47" t="str">
-        <f t="shared" si="5"/>
-        <v>2^2</v>
-      </c>
-      <c r="AX47" t="str">
-        <f t="shared" si="6"/>
-        <v>2^1</v>
-      </c>
-      <c r="AY47" t="str">
-        <f t="shared" si="7"/>
         <v>2^0</v>
       </c>
       <c r="AZ47">
         <v>42</v>
       </c>
       <c r="BN47" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>101</v>
       </c>
       <c r="BO47" s="2" t="str">
@@ -6588,9 +6582,9 @@
       </c>
     </row>
     <row r="48" spans="5:67" x14ac:dyDescent="0.25">
-      <c r="V48" s="9"/>
-      <c r="Y48" s="10" t="str">
-        <f>_xlfn.CONCAT(BN45,BO45)</f>
+      <c r="V48" s="7"/>
+      <c r="Y48" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>101100</v>
       </c>
       <c r="Z48" s="2">
@@ -6608,70 +6602,70 @@
         <v>1</v>
       </c>
       <c r="AG48" s="2">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="AI48" s="2">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="AJ48" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK48" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL48" s="2">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AM48" s="2">
         <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="AI48" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN48" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP48" s="2">
+        <f t="shared" si="23"/>
+        <v>39</v>
+      </c>
+      <c r="AR48">
+        <f t="shared" si="17"/>
+        <v>5.2854022188622487</v>
+      </c>
+      <c r="AT48" t="str">
+        <f t="shared" si="4"/>
+        <v>2^5</v>
+      </c>
+      <c r="AU48" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV48" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW48" t="str">
+        <f t="shared" si="7"/>
+        <v>2^2</v>
+      </c>
+      <c r="AX48" t="str">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="AJ48" s="2">
+        <v>2^1</v>
+      </c>
+      <c r="AY48" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK48" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL48" s="2">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AM48" s="2">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AN48" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AP48" s="2">
-        <f>SUM(AI48:AN48)</f>
-        <v>39</v>
-      </c>
-      <c r="AR48">
-        <f t="shared" si="15"/>
-        <v>5.2854022188622487</v>
-      </c>
-      <c r="AT48" t="str">
-        <f t="shared" si="2"/>
-        <v>2^5</v>
-      </c>
-      <c r="AU48" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV48" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AW48" t="str">
-        <f t="shared" si="5"/>
-        <v>2^2</v>
-      </c>
-      <c r="AX48" t="str">
-        <f t="shared" si="6"/>
-        <v>2^1</v>
-      </c>
-      <c r="AY48" t="str">
-        <f t="shared" si="7"/>
         <v>2^0</v>
       </c>
       <c r="AZ48">
         <v>43</v>
       </c>
       <c r="BN48" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>101</v>
       </c>
       <c r="BO48" s="2" t="str">
@@ -6680,9 +6674,9 @@
       </c>
     </row>
     <row r="49" spans="22:67" x14ac:dyDescent="0.25">
-      <c r="V49" s="9"/>
-      <c r="Y49" s="10" t="str">
-        <f>_xlfn.CONCAT(BN46,BO46)</f>
+      <c r="V49" s="7"/>
+      <c r="Y49" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>101101</v>
       </c>
       <c r="Z49" s="2"/>
@@ -6700,63 +6694,63 @@
         <v>1</v>
       </c>
       <c r="AG49" s="2">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="AI49" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="2">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="AK49" s="2">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AL49" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM49" s="2">
         <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="AI49" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN49" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP49" s="2">
+        <f t="shared" si="23"/>
+        <v>27</v>
+      </c>
+      <c r="AR49">
+        <f t="shared" si="17"/>
+        <v>4.7548875021634691</v>
+      </c>
+      <c r="AT49" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AU49" t="str">
+        <f t="shared" si="5"/>
+        <v>2^4</v>
+      </c>
+      <c r="AV49" t="str">
+        <f t="shared" si="6"/>
+        <v>2^3</v>
+      </c>
+      <c r="AW49" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AX49" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ49" s="2">
+        <v>2^1</v>
+      </c>
+      <c r="AY49" t="str">
         <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="AK49" s="2">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AL49" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM49" s="2">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AN49" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AP49" s="2">
-        <f>SUM(AI49:AN49)</f>
-        <v>27</v>
-      </c>
-      <c r="AR49">
-        <f t="shared" si="15"/>
-        <v>4.7548875021634691</v>
-      </c>
-      <c r="AT49" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AU49" t="str">
-        <f t="shared" si="3"/>
-        <v>2^4</v>
-      </c>
-      <c r="AV49" t="str">
-        <f t="shared" si="4"/>
-        <v>2^3</v>
-      </c>
-      <c r="AW49" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AX49" t="str">
-        <f t="shared" si="6"/>
-        <v>2^1</v>
-      </c>
-      <c r="AY49" t="str">
-        <f t="shared" si="7"/>
         <v>2^0</v>
       </c>
       <c r="AZ49">
@@ -6772,9 +6766,9 @@
       </c>
     </row>
     <row r="50" spans="22:67" x14ac:dyDescent="0.25">
-      <c r="V50" s="9"/>
-      <c r="Y50" s="10" t="str">
-        <f>_xlfn.CONCAT(BN47,BO47)</f>
+      <c r="V50" s="7"/>
+      <c r="Y50" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>101110</v>
       </c>
       <c r="Z50" s="2">
@@ -6792,70 +6786,70 @@
         <v>1</v>
       </c>
       <c r="AG50" s="2">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="AI50" s="2">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="AJ50" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK50" s="2">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AL50" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM50" s="2">
         <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="AI50" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN50" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP50" s="2">
+        <f t="shared" si="23"/>
+        <v>43</v>
+      </c>
+      <c r="AR50">
+        <f t="shared" si="17"/>
+        <v>5.4262647547020979</v>
+      </c>
+      <c r="AT50" t="str">
+        <f t="shared" si="4"/>
+        <v>2^5</v>
+      </c>
+      <c r="AU50" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV50" t="str">
+        <f t="shared" si="6"/>
+        <v>2^3</v>
+      </c>
+      <c r="AW50" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AX50" t="str">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="AJ50" s="2">
+        <v>2^1</v>
+      </c>
+      <c r="AY50" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK50" s="2">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AL50" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM50" s="2">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AN50" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AP50" s="2">
-        <f>SUM(AI50:AN50)</f>
-        <v>43</v>
-      </c>
-      <c r="AR50">
-        <f t="shared" si="15"/>
-        <v>5.4262647547020979</v>
-      </c>
-      <c r="AT50" t="str">
-        <f t="shared" si="2"/>
-        <v>2^5</v>
-      </c>
-      <c r="AU50" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV50" t="str">
-        <f t="shared" si="4"/>
-        <v>2^3</v>
-      </c>
-      <c r="AW50" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AX50" t="str">
-        <f t="shared" si="6"/>
-        <v>2^1</v>
-      </c>
-      <c r="AY50" t="str">
-        <f t="shared" si="7"/>
         <v>2^0</v>
       </c>
       <c r="AZ50">
         <v>45</v>
       </c>
       <c r="BN50" s="2" t="str">
-        <f t="shared" ref="BN50:BN56" si="21">"110"</f>
+        <f t="shared" ref="BN50:BN56" si="25">"110"</f>
         <v>110</v>
       </c>
       <c r="BO50" s="2" t="str">
@@ -6864,9 +6858,9 @@
       </c>
     </row>
     <row r="51" spans="22:67" x14ac:dyDescent="0.25">
-      <c r="V51" s="9"/>
-      <c r="Y51" s="10" t="str">
-        <f>_xlfn.CONCAT(BN48,BO48)</f>
+      <c r="V51" s="7"/>
+      <c r="Y51" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>101111</v>
       </c>
       <c r="Z51" s="2">
@@ -6884,70 +6878,70 @@
         <v>1</v>
       </c>
       <c r="AG51" s="2">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="AI51" s="2">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="AJ51" s="2">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="AK51" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL51" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM51" s="2">
         <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="AI51" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN51" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP51" s="2">
+        <f t="shared" si="23"/>
+        <v>51</v>
+      </c>
+      <c r="AR51">
+        <f t="shared" si="17"/>
+        <v>5.6724253419714961</v>
+      </c>
+      <c r="AT51" t="str">
+        <f t="shared" si="4"/>
+        <v>2^5</v>
+      </c>
+      <c r="AU51" t="str">
+        <f t="shared" si="5"/>
+        <v>2^4</v>
+      </c>
+      <c r="AV51" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW51" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AX51" t="str">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="AJ51" s="2">
+        <v>2^1</v>
+      </c>
+      <c r="AY51" t="str">
         <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="AK51" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL51" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM51" s="2">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AN51" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AP51" s="2">
-        <f>SUM(AI51:AN51)</f>
-        <v>51</v>
-      </c>
-      <c r="AR51">
-        <f t="shared" si="15"/>
-        <v>5.6724253419714961</v>
-      </c>
-      <c r="AT51" t="str">
-        <f t="shared" si="2"/>
-        <v>2^5</v>
-      </c>
-      <c r="AU51" t="str">
-        <f t="shared" si="3"/>
-        <v>2^4</v>
-      </c>
-      <c r="AV51" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AW51" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AX51" t="str">
-        <f t="shared" si="6"/>
-        <v>2^1</v>
-      </c>
-      <c r="AY51" t="str">
-        <f t="shared" si="7"/>
         <v>2^0</v>
       </c>
       <c r="AZ51">
         <v>46</v>
       </c>
       <c r="BN51" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>110</v>
       </c>
       <c r="BO51" s="2" t="str">
@@ -6956,9 +6950,9 @@
       </c>
     </row>
     <row r="52" spans="22:67" x14ac:dyDescent="0.25">
-      <c r="V52" s="9"/>
-      <c r="Y52" s="10" t="str">
-        <f>_xlfn.CONCAT(BN49,BO49)</f>
+      <c r="V52" s="7"/>
+      <c r="Y52" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>110000</v>
       </c>
       <c r="Z52" s="2"/>
@@ -6976,70 +6970,70 @@
         <v>1</v>
       </c>
       <c r="AG52" s="2">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="AI52" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="2">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="AK52" s="2">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AL52" s="2">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AM52" s="2">
         <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="AI52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP52" s="2">
+        <f t="shared" si="23"/>
+        <v>29</v>
+      </c>
+      <c r="AR52">
+        <f t="shared" si="17"/>
+        <v>4.8579809951275728</v>
+      </c>
+      <c r="AT52" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AU52" t="str">
+        <f t="shared" si="5"/>
+        <v>2^4</v>
+      </c>
+      <c r="AV52" t="str">
+        <f t="shared" si="6"/>
+        <v>2^3</v>
+      </c>
+      <c r="AW52" t="str">
+        <f t="shared" si="7"/>
+        <v>2^2</v>
+      </c>
+      <c r="AX52" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ52" s="2">
+        <v/>
+      </c>
+      <c r="AY52" t="str">
         <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="AK52" s="2">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AL52" s="2">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AM52" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN52" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AP52" s="2">
-        <f>SUM(AI52:AN52)</f>
-        <v>29</v>
-      </c>
-      <c r="AR52">
-        <f t="shared" si="15"/>
-        <v>4.8579809951275728</v>
-      </c>
-      <c r="AT52" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AU52" t="str">
-        <f t="shared" si="3"/>
-        <v>2^4</v>
-      </c>
-      <c r="AV52" t="str">
-        <f t="shared" si="4"/>
-        <v>2^3</v>
-      </c>
-      <c r="AW52" t="str">
-        <f t="shared" si="5"/>
-        <v>2^2</v>
-      </c>
-      <c r="AX52" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AY52" t="str">
-        <f t="shared" si="7"/>
         <v>2^0</v>
       </c>
       <c r="AZ52">
         <v>47</v>
       </c>
       <c r="BN52" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>110</v>
       </c>
       <c r="BO52" s="2" t="str">
@@ -7048,9 +7042,9 @@
       </c>
     </row>
     <row r="53" spans="22:67" x14ac:dyDescent="0.25">
-      <c r="V53" s="9"/>
-      <c r="Y53" s="10" t="str">
-        <f>_xlfn.CONCAT(BN50,BO50)</f>
+      <c r="V53" s="7"/>
+      <c r="Y53" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>110001</v>
       </c>
       <c r="Z53" s="2">
@@ -7068,70 +7062,70 @@
         <v>1</v>
       </c>
       <c r="AG53" s="2">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="AI53" s="2">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="AJ53" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK53" s="2">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AL53" s="2">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AM53" s="2">
         <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="AI53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN53" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP53" s="2">
+        <f t="shared" si="23"/>
+        <v>45</v>
+      </c>
+      <c r="AR53">
+        <f t="shared" si="17"/>
+        <v>5.4918530963296748</v>
+      </c>
+      <c r="AT53" t="str">
+        <f t="shared" si="4"/>
+        <v>2^5</v>
+      </c>
+      <c r="AU53" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV53" t="str">
+        <f t="shared" si="6"/>
+        <v>2^3</v>
+      </c>
+      <c r="AW53" t="str">
+        <f t="shared" si="7"/>
+        <v>2^2</v>
+      </c>
+      <c r="AX53" t="str">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="AJ53" s="2">
+        <v/>
+      </c>
+      <c r="AY53" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK53" s="2">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AL53" s="2">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AM53" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN53" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AP53" s="2">
-        <f>SUM(AI53:AN53)</f>
-        <v>45</v>
-      </c>
-      <c r="AR53">
-        <f t="shared" si="15"/>
-        <v>5.4918530963296748</v>
-      </c>
-      <c r="AT53" t="str">
-        <f t="shared" si="2"/>
-        <v>2^5</v>
-      </c>
-      <c r="AU53" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV53" t="str">
-        <f t="shared" si="4"/>
-        <v>2^3</v>
-      </c>
-      <c r="AW53" t="str">
-        <f t="shared" si="5"/>
-        <v>2^2</v>
-      </c>
-      <c r="AX53" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AY53" t="str">
-        <f t="shared" si="7"/>
         <v>2^0</v>
       </c>
       <c r="AZ53">
         <v>48</v>
       </c>
       <c r="BN53" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>110</v>
       </c>
       <c r="BO53" s="2" t="str">
@@ -7140,9 +7134,9 @@
       </c>
     </row>
     <row r="54" spans="22:67" x14ac:dyDescent="0.25">
-      <c r="V54" s="9"/>
-      <c r="Y54" s="10" t="str">
-        <f>_xlfn.CONCAT(BN51,BO51)</f>
+      <c r="V54" s="7"/>
+      <c r="Y54" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>110010</v>
       </c>
       <c r="Z54" s="2">
@@ -7160,70 +7154,70 @@
         <v>1</v>
       </c>
       <c r="AG54" s="2">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="AI54" s="2">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="AJ54" s="2">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="AK54" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL54" s="2">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AM54" s="2">
         <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="AI54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN54" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP54" s="2">
+        <f t="shared" si="23"/>
+        <v>53</v>
+      </c>
+      <c r="AR54">
+        <f t="shared" si="17"/>
+        <v>5.7279204545631996</v>
+      </c>
+      <c r="AT54" t="str">
+        <f t="shared" si="4"/>
+        <v>2^5</v>
+      </c>
+      <c r="AU54" t="str">
+        <f t="shared" si="5"/>
+        <v>2^4</v>
+      </c>
+      <c r="AV54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW54" t="str">
+        <f t="shared" si="7"/>
+        <v>2^2</v>
+      </c>
+      <c r="AX54" t="str">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="AJ54" s="2">
+        <v/>
+      </c>
+      <c r="AY54" t="str">
         <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="AK54" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL54" s="2">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AM54" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN54" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AP54" s="2">
-        <f>SUM(AI54:AN54)</f>
-        <v>53</v>
-      </c>
-      <c r="AR54">
-        <f t="shared" si="15"/>
-        <v>5.7279204545631996</v>
-      </c>
-      <c r="AT54" t="str">
-        <f t="shared" si="2"/>
-        <v>2^5</v>
-      </c>
-      <c r="AU54" t="str">
-        <f t="shared" si="3"/>
-        <v>2^4</v>
-      </c>
-      <c r="AV54" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AW54" t="str">
-        <f t="shared" si="5"/>
-        <v>2^2</v>
-      </c>
-      <c r="AX54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AY54" t="str">
-        <f t="shared" si="7"/>
         <v>2^0</v>
       </c>
       <c r="AZ54">
         <v>49</v>
       </c>
       <c r="BN54" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>110</v>
       </c>
       <c r="BO54" s="2" t="str">
@@ -7232,90 +7226,90 @@
       </c>
     </row>
     <row r="55" spans="22:67" x14ac:dyDescent="0.25">
-      <c r="V55" s="9"/>
-      <c r="Y55" s="10" t="str">
-        <f>_xlfn.CONCAT(BN52,BO52)</f>
+      <c r="V55" s="7"/>
+      <c r="Y55" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>110011</v>
       </c>
-      <c r="Z55" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA55" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB55" s="8">
+      <c r="Z55" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA55" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB55" s="6">
         <v>1</v>
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
-      <c r="AE55" s="8">
+      <c r="AE55" s="6">
         <v>1</v>
       </c>
       <c r="AG55" s="2">
-        <f t="shared" ref="AG55:AG58" si="22">SUM(Z55:AE55)</f>
+        <f t="shared" ref="AG55:AG58" si="26">SUM(Z55:AE55)</f>
         <v>4</v>
       </c>
       <c r="AI55" s="2">
-        <f t="shared" ref="AI55:AI58" si="23">Z55*Z$3</f>
+        <f t="shared" ref="AI55:AI58" si="27">Z55*Z$3</f>
         <v>32</v>
       </c>
       <c r="AJ55" s="2">
-        <f t="shared" ref="AJ55:AJ58" si="24">AA55*AA$3</f>
+        <f t="shared" ref="AJ55:AJ58" si="28">AA55*AA$3</f>
         <v>16</v>
       </c>
       <c r="AK55" s="2">
-        <f t="shared" ref="AK55:AK58" si="25">AB55*AB$3</f>
+        <f t="shared" ref="AK55:AK58" si="29">AB55*AB$3</f>
         <v>8</v>
       </c>
       <c r="AL55" s="2">
-        <f t="shared" ref="AL55:AL58" si="26">AC55*AC$3</f>
+        <f t="shared" ref="AL55:AL58" si="30">AC55*AC$3</f>
         <v>0</v>
       </c>
       <c r="AM55" s="2">
-        <f t="shared" ref="AM55:AM58" si="27">AD55*AD$3</f>
+        <f t="shared" ref="AM55:AM58" si="31">AD55*AD$3</f>
         <v>0</v>
       </c>
       <c r="AN55" s="2">
-        <f t="shared" ref="AN55:AN58" si="28">AE55*AE$3</f>
+        <f t="shared" ref="AN55:AN58" si="32">AE55*AE$3</f>
         <v>1</v>
       </c>
       <c r="AP55" s="2">
-        <f>SUM(AI55:AN55)</f>
+        <f t="shared" si="23"/>
         <v>57</v>
       </c>
       <c r="AR55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.8328900141647422</v>
       </c>
       <c r="AT55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2^5</v>
       </c>
       <c r="AU55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2^4</v>
       </c>
       <c r="AV55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2^3</v>
       </c>
       <c r="AW55" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AX55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AY55" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2^0</v>
       </c>
       <c r="AZ55">
         <v>50</v>
       </c>
       <c r="BN55" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>110</v>
       </c>
       <c r="BO55" s="2" t="str">
@@ -7324,9 +7318,9 @@
       </c>
     </row>
     <row r="56" spans="22:67" x14ac:dyDescent="0.25">
-      <c r="V56" s="9"/>
-      <c r="Y56" s="10" t="str">
-        <f>_xlfn.CONCAT(BN53,BO53)</f>
+      <c r="V56" s="7"/>
+      <c r="Y56" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>110100</v>
       </c>
       <c r="Z56" s="2"/>
@@ -7344,70 +7338,70 @@
       </c>
       <c r="AE56" s="2"/>
       <c r="AG56" s="2">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="AI56" s="2">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AJ56" s="2">
-        <f t="shared" si="24"/>
-        <v>16</v>
-      </c>
-      <c r="AK56" s="2">
-        <f t="shared" si="25"/>
-        <v>8</v>
-      </c>
-      <c r="AL56" s="2">
         <f t="shared" si="26"/>
         <v>4</v>
       </c>
+      <c r="AI56" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AJ56" s="2">
+        <f t="shared" si="28"/>
+        <v>16</v>
+      </c>
+      <c r="AK56" s="2">
+        <f t="shared" si="29"/>
+        <v>8</v>
+      </c>
+      <c r="AL56" s="2">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
       <c r="AM56" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AN56" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AP56" s="2">
-        <f>SUM(AI56:AN56)</f>
+        <f t="shared" si="23"/>
         <v>30</v>
       </c>
       <c r="AR56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9068905956085187</v>
       </c>
       <c r="AT56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AU56" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2^4</v>
       </c>
       <c r="AV56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2^3</v>
       </c>
       <c r="AW56" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2^2</v>
       </c>
       <c r="AX56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2^1</v>
       </c>
       <c r="AY56" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AZ56">
         <v>51</v>
       </c>
       <c r="BN56" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>110</v>
       </c>
       <c r="BO56" s="2" t="str">
@@ -7416,83 +7410,83 @@
       </c>
     </row>
     <row r="57" spans="22:67" x14ac:dyDescent="0.25">
-      <c r="V57" s="9"/>
-      <c r="Y57" s="10" t="str">
-        <f>_xlfn.CONCAT(BN54,BO54)</f>
+      <c r="V57" s="7"/>
+      <c r="Y57" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>110101</v>
       </c>
-      <c r="Z57" s="8">
+      <c r="Z57" s="6">
         <v>1</v>
       </c>
       <c r="AA57" s="2"/>
-      <c r="AB57" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC57" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD57" s="8">
+      <c r="AB57" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD57" s="6">
         <v>1</v>
       </c>
       <c r="AE57" s="2"/>
       <c r="AG57" s="2">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="AI57" s="2">
-        <f t="shared" si="23"/>
-        <v>32</v>
-      </c>
-      <c r="AJ57" s="2">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AK57" s="2">
-        <f t="shared" si="25"/>
-        <v>8</v>
-      </c>
-      <c r="AL57" s="2">
         <f t="shared" si="26"/>
         <v>4</v>
       </c>
+      <c r="AI57" s="2">
+        <f t="shared" si="27"/>
+        <v>32</v>
+      </c>
+      <c r="AJ57" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK57" s="2">
+        <f t="shared" si="29"/>
+        <v>8</v>
+      </c>
+      <c r="AL57" s="2">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
       <c r="AM57" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AN57" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AP57" s="2">
-        <f>SUM(AI57:AN57)</f>
+        <f t="shared" si="23"/>
         <v>46</v>
       </c>
       <c r="AR57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.5235619560570131</v>
       </c>
       <c r="AT57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2^5</v>
       </c>
       <c r="AU57" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AV57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2^3</v>
       </c>
       <c r="AW57" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2^2</v>
       </c>
       <c r="AX57" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2^1</v>
       </c>
       <c r="AY57" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AZ57">
@@ -7508,90 +7502,90 @@
       </c>
     </row>
     <row r="58" spans="22:67" x14ac:dyDescent="0.25">
-      <c r="V58" s="9"/>
-      <c r="Y58" s="10" t="str">
-        <f>_xlfn.CONCAT(BN55,BO55)</f>
+      <c r="V58" s="7"/>
+      <c r="Y58" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>110110</v>
       </c>
-      <c r="Z58" s="8">
+      <c r="Z58" s="6">
         <v>1</v>
       </c>
       <c r="AA58" s="2">
         <v>1</v>
       </c>
       <c r="AB58" s="2"/>
-      <c r="AC58" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD58" s="8">
+      <c r="AC58" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD58" s="6">
         <v>1</v>
       </c>
       <c r="AE58" s="2"/>
       <c r="AG58" s="2">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="AI58" s="2">
-        <f t="shared" si="23"/>
-        <v>32</v>
-      </c>
-      <c r="AJ58" s="2">
-        <f t="shared" si="24"/>
-        <v>16</v>
-      </c>
-      <c r="AK58" s="2">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AL58" s="2">
         <f t="shared" si="26"/>
         <v>4</v>
       </c>
+      <c r="AI58" s="2">
+        <f t="shared" si="27"/>
+        <v>32</v>
+      </c>
+      <c r="AJ58" s="2">
+        <f t="shared" si="28"/>
+        <v>16</v>
+      </c>
+      <c r="AK58" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AL58" s="2">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
       <c r="AM58" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AN58" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AP58" s="2">
-        <f>SUM(AI58:AN58)</f>
+        <f t="shared" si="23"/>
         <v>54</v>
       </c>
       <c r="AR58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.7548875021634691</v>
       </c>
       <c r="AT58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2^5</v>
       </c>
       <c r="AU58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2^4</v>
       </c>
       <c r="AV58" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AW58" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2^2</v>
       </c>
       <c r="AX58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2^1</v>
       </c>
       <c r="AY58" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AZ58">
         <v>53</v>
       </c>
       <c r="BN58" s="2" t="str">
-        <f t="shared" ref="BN58:BN64" si="29">"111"</f>
+        <f t="shared" ref="BN58:BN64" si="33">"111"</f>
         <v>111</v>
       </c>
       <c r="BO58" s="2" t="str">
@@ -7600,9 +7594,9 @@
       </c>
     </row>
     <row r="59" spans="22:67" x14ac:dyDescent="0.25">
-      <c r="V59" s="9"/>
-      <c r="Y59" s="10" t="str">
-        <f>_xlfn.CONCAT(BN56,BO56)</f>
+      <c r="V59" s="7"/>
+      <c r="Y59" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>110111</v>
       </c>
       <c r="Z59" s="2">
@@ -7620,70 +7614,70 @@
       </c>
       <c r="AE59" s="2"/>
       <c r="AG59" s="2">
-        <f t="shared" ref="AG56:AG67" si="30">SUM(Z59:AE59)</f>
+        <f t="shared" ref="AG59:AG67" si="34">SUM(Z59:AE59)</f>
         <v>4</v>
       </c>
       <c r="AI59" s="2">
-        <f t="shared" ref="AI59:AI67" si="31">Z59*Z$3</f>
+        <f t="shared" ref="AI59:AI67" si="35">Z59*Z$3</f>
         <v>32</v>
       </c>
       <c r="AJ59" s="2">
-        <f t="shared" ref="AJ59:AJ67" si="32">AA59*AA$3</f>
+        <f t="shared" ref="AJ59:AJ67" si="36">AA59*AA$3</f>
         <v>16</v>
       </c>
       <c r="AK59" s="2">
-        <f t="shared" ref="AK59:AK67" si="33">AB59*AB$3</f>
+        <f t="shared" ref="AK59:AK67" si="37">AB59*AB$3</f>
         <v>8</v>
       </c>
       <c r="AL59" s="2">
-        <f t="shared" ref="AL59:AL67" si="34">AC59*AC$3</f>
+        <f t="shared" ref="AL59:AL67" si="38">AC59*AC$3</f>
         <v>0</v>
       </c>
       <c r="AM59" s="2">
-        <f t="shared" ref="AM59:AM67" si="35">AD59*AD$3</f>
+        <f t="shared" ref="AM59:AM67" si="39">AD59*AD$3</f>
         <v>2</v>
       </c>
       <c r="AN59" s="2">
-        <f t="shared" ref="AN59:AN67" si="36">AE59*AE$3</f>
+        <f t="shared" ref="AN59:AN67" si="40">AE59*AE$3</f>
         <v>0</v>
       </c>
       <c r="AP59" s="2">
-        <f>SUM(AI59:AN59)</f>
+        <f t="shared" si="23"/>
         <v>58</v>
       </c>
       <c r="AR59">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.8579809951275719</v>
       </c>
       <c r="AT59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2^5</v>
       </c>
       <c r="AU59" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2^4</v>
       </c>
       <c r="AV59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2^3</v>
       </c>
       <c r="AW59" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AX59" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2^1</v>
       </c>
       <c r="AY59" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AZ59">
         <v>54</v>
       </c>
       <c r="BN59" s="2" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>111</v>
       </c>
       <c r="BO59" s="2" t="str">
@@ -7692,9 +7686,9 @@
       </c>
     </row>
     <row r="60" spans="22:67" x14ac:dyDescent="0.25">
-      <c r="V60" s="9"/>
-      <c r="Y60" s="10" t="str">
-        <f>_xlfn.CONCAT(BN57,BO57)</f>
+      <c r="V60" s="7"/>
+      <c r="Y60" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>111000</v>
       </c>
       <c r="Z60" s="2">
@@ -7712,70 +7706,70 @@
       <c r="AD60" s="2"/>
       <c r="AE60" s="2"/>
       <c r="AG60" s="2">
-        <f t="shared" si="30"/>
-        <v>4</v>
-      </c>
-      <c r="AI60" s="2">
-        <f t="shared" si="31"/>
-        <v>32</v>
-      </c>
-      <c r="AJ60" s="2">
-        <f t="shared" si="32"/>
-        <v>16</v>
-      </c>
-      <c r="AK60" s="2">
-        <f t="shared" si="33"/>
-        <v>8</v>
-      </c>
-      <c r="AL60" s="2">
         <f t="shared" si="34"/>
         <v>4</v>
       </c>
+      <c r="AI60" s="2">
+        <f t="shared" si="35"/>
+        <v>32</v>
+      </c>
+      <c r="AJ60" s="2">
+        <f t="shared" si="36"/>
+        <v>16</v>
+      </c>
+      <c r="AK60" s="2">
+        <f t="shared" si="37"/>
+        <v>8</v>
+      </c>
+      <c r="AL60" s="2">
+        <f t="shared" si="38"/>
+        <v>4</v>
+      </c>
       <c r="AM60" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AN60" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AP60" s="2">
-        <f>SUM(AI60:AN60)</f>
+        <f t="shared" si="23"/>
         <v>60</v>
       </c>
       <c r="AR60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.9068905956085187</v>
       </c>
       <c r="AT60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2^5</v>
       </c>
       <c r="AU60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2^4</v>
       </c>
       <c r="AV60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2^3</v>
       </c>
       <c r="AW60" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2^2</v>
       </c>
       <c r="AX60" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AY60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AZ60">
         <v>55</v>
       </c>
       <c r="BN60" s="2" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>111</v>
       </c>
       <c r="BO60" s="2" t="str">
@@ -7784,9 +7778,9 @@
       </c>
     </row>
     <row r="61" spans="22:67" x14ac:dyDescent="0.25">
-      <c r="V61" s="9"/>
-      <c r="Y61" s="10" t="str">
-        <f>_xlfn.CONCAT(BN58,BO58)</f>
+      <c r="V61" s="7"/>
+      <c r="Y61" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>111001</v>
       </c>
       <c r="Z61" s="2"/>
@@ -7806,70 +7800,70 @@
         <v>1</v>
       </c>
       <c r="AG61" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="AI61" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AJ61" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>16</v>
       </c>
       <c r="AK61" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="AL61" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>4</v>
       </c>
       <c r="AM61" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="AN61" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="AP61" s="2">
-        <f>SUM(AI61:AN61)</f>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="AR61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9541963103868758</v>
       </c>
       <c r="AT61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AU61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2^4</v>
       </c>
       <c r="AV61" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2^3</v>
       </c>
       <c r="AW61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2^2</v>
       </c>
       <c r="AX61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2^1</v>
       </c>
       <c r="AY61" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2^0</v>
       </c>
       <c r="AZ61">
         <v>56</v>
       </c>
       <c r="BN61" s="2" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>111</v>
       </c>
       <c r="BO61" s="2" t="str">
@@ -7878,9 +7872,9 @@
       </c>
     </row>
     <row r="62" spans="22:67" x14ac:dyDescent="0.25">
-      <c r="V62" s="9"/>
-      <c r="Y62" s="10" t="str">
-        <f>_xlfn.CONCAT(BN59,BO59)</f>
+      <c r="V62" s="7"/>
+      <c r="Y62" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>111010</v>
       </c>
       <c r="Z62" s="2">
@@ -7900,70 +7894,70 @@
         <v>1</v>
       </c>
       <c r="AG62" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="AI62" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>32</v>
       </c>
       <c r="AJ62" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AK62" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="AL62" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>4</v>
       </c>
       <c r="AM62" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="AN62" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="AP62" s="2">
-        <f>SUM(AI62:AN62)</f>
+        <f t="shared" si="23"/>
         <v>47</v>
       </c>
       <c r="AR62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.5545888516776376</v>
       </c>
       <c r="AT62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2^5</v>
       </c>
       <c r="AU62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AV62" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2^3</v>
       </c>
       <c r="AW62" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2^2</v>
       </c>
       <c r="AX62" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2^1</v>
       </c>
       <c r="AY62" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2^0</v>
       </c>
       <c r="AZ62">
         <v>57</v>
       </c>
       <c r="BN62" s="2" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>111</v>
       </c>
       <c r="BO62" s="2" t="str">
@@ -7972,9 +7966,9 @@
       </c>
     </row>
     <row r="63" spans="22:67" x14ac:dyDescent="0.25">
-      <c r="V63" s="9"/>
-      <c r="Y63" s="10" t="str">
-        <f>_xlfn.CONCAT(BN60,BO60)</f>
+      <c r="V63" s="7"/>
+      <c r="Y63" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>111011</v>
       </c>
       <c r="Z63" s="2">
@@ -7994,70 +7988,70 @@
         <v>1</v>
       </c>
       <c r="AG63" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="AI63" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>32</v>
       </c>
       <c r="AJ63" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>16</v>
       </c>
       <c r="AK63" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AL63" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>4</v>
       </c>
       <c r="AM63" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="AN63" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="AP63" s="2">
-        <f>SUM(AI63:AN63)</f>
+        <f t="shared" si="23"/>
         <v>55</v>
       </c>
       <c r="AR63">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.7813597135246599</v>
       </c>
       <c r="AT63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2^5</v>
       </c>
       <c r="AU63" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2^4</v>
       </c>
       <c r="AV63" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AW63" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2^2</v>
       </c>
       <c r="AX63" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2^1</v>
       </c>
       <c r="AY63" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2^0</v>
       </c>
       <c r="AZ63">
         <v>58</v>
       </c>
       <c r="BN63" s="2" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>111</v>
       </c>
       <c r="BO63" s="2" t="str">
@@ -8066,9 +8060,9 @@
       </c>
     </row>
     <row r="64" spans="22:67" x14ac:dyDescent="0.25">
-      <c r="V64" s="9"/>
-      <c r="Y64" s="10" t="str">
-        <f>_xlfn.CONCAT(BN61,BO61)</f>
+      <c r="V64" s="7"/>
+      <c r="Y64" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>111100</v>
       </c>
       <c r="Z64" s="2">
@@ -8088,70 +8082,70 @@
         <v>1</v>
       </c>
       <c r="AG64" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="AI64" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>32</v>
       </c>
       <c r="AJ64" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>16</v>
       </c>
       <c r="AK64" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="AL64" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AM64" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="AN64" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="AP64" s="2">
-        <f>SUM(AI64:AN64)</f>
+        <f t="shared" si="23"/>
         <v>59</v>
       </c>
       <c r="AR64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.8826430493618416</v>
       </c>
       <c r="AT64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2^5</v>
       </c>
       <c r="AU64" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2^4</v>
       </c>
       <c r="AV64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2^3</v>
       </c>
       <c r="AW64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AX64" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2^1</v>
       </c>
       <c r="AY64" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2^0</v>
       </c>
       <c r="AZ64">
         <v>59</v>
       </c>
       <c r="BN64" s="2" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>111</v>
       </c>
       <c r="BO64" s="2" t="str">
@@ -8160,9 +8154,9 @@
       </c>
     </row>
     <row r="65" spans="22:52" x14ac:dyDescent="0.25">
-      <c r="V65" s="9"/>
-      <c r="Y65" s="10" t="str">
-        <f>_xlfn.CONCAT(BN62,BO62)</f>
+      <c r="V65" s="7"/>
+      <c r="Y65" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>111101</v>
       </c>
       <c r="Z65" s="2">
@@ -8182,39 +8176,39 @@
         <v>1</v>
       </c>
       <c r="AG65" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="AI65" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>32</v>
       </c>
       <c r="AJ65" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>16</v>
       </c>
       <c r="AK65" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="AL65" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>4</v>
       </c>
       <c r="AM65" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AN65" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="AP65" s="2">
-        <f>SUM(AI65:AN65)</f>
+        <f t="shared" si="23"/>
         <v>61</v>
       </c>
       <c r="AR65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.9307373375628867</v>
       </c>
       <c r="AT65" t="str">
@@ -8246,9 +8240,9 @@
       </c>
     </row>
     <row r="66" spans="22:52" x14ac:dyDescent="0.25">
-      <c r="V66" s="9"/>
-      <c r="Y66" s="10" t="str">
-        <f>_xlfn.CONCAT(BN63,BO63)</f>
+      <c r="V66" s="7"/>
+      <c r="Y66" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>111110</v>
       </c>
       <c r="Z66" s="2">
@@ -8268,63 +8262,63 @@
       </c>
       <c r="AE66" s="2"/>
       <c r="AG66" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="AI66" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>32</v>
       </c>
       <c r="AJ66" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>16</v>
       </c>
       <c r="AK66" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="AL66" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>4</v>
       </c>
       <c r="AM66" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="AN66" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AP66" s="2">
-        <f>SUM(AI66:AN66)</f>
+        <f t="shared" si="23"/>
         <v>62</v>
       </c>
       <c r="AR66">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.9541963103868758</v>
       </c>
       <c r="AT66" t="str">
-        <f t="shared" ref="AT66:AT67" si="37">IF(Z66=1,"2^5","")</f>
+        <f t="shared" ref="AT66:AT67" si="41">IF(Z66=1,"2^5","")</f>
         <v>2^5</v>
       </c>
       <c r="AU66" t="str">
-        <f t="shared" ref="AU66:AU67" si="38">IF(AA66=1,"2^4","")</f>
+        <f t="shared" ref="AU66:AU67" si="42">IF(AA66=1,"2^4","")</f>
         <v>2^4</v>
       </c>
       <c r="AV66" t="str">
-        <f t="shared" ref="AV66:AV67" si="39">IF(AB66=1,"2^3","")</f>
+        <f t="shared" ref="AV66:AV67" si="43">IF(AB66=1,"2^3","")</f>
         <v>2^3</v>
       </c>
       <c r="AW66" t="str">
-        <f t="shared" ref="AW66:AW67" si="40">IF(AC66=1,"2^2","")</f>
+        <f t="shared" ref="AW66:AW67" si="44">IF(AC66=1,"2^2","")</f>
         <v>2^2</v>
       </c>
       <c r="AX66" t="str">
-        <f t="shared" ref="AX66:AX67" si="41">IF(AD66=1,"2^1","")</f>
+        <f t="shared" ref="AX66:AX67" si="45">IF(AD66=1,"2^1","")</f>
         <v>2^1</v>
       </c>
       <c r="AY66" t="str">
-        <f t="shared" ref="AY66:AY67" si="42">IF(AE66=1,"2^0","")</f>
+        <f t="shared" ref="AY66:AY67" si="46">IF(AE66=1,"2^0","")</f>
         <v/>
       </c>
       <c r="AZ66">
@@ -8332,9 +8326,9 @@
       </c>
     </row>
     <row r="67" spans="22:52" x14ac:dyDescent="0.25">
-      <c r="V67" s="9"/>
-      <c r="Y67" s="10" t="str">
-        <f>_xlfn.CONCAT(BN64,BO64)</f>
+      <c r="V67" s="7"/>
+      <c r="Y67" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>111111</v>
       </c>
       <c r="Z67" s="2">
@@ -8356,63 +8350,63 @@
         <v>1</v>
       </c>
       <c r="AG67" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
       <c r="AI67" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>32</v>
       </c>
       <c r="AJ67" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>16</v>
       </c>
       <c r="AK67" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="AL67" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>4</v>
       </c>
       <c r="AM67" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="AN67" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="AP67" s="2">
-        <f>SUM(AI67:AN67)</f>
+        <f t="shared" si="23"/>
         <v>63</v>
       </c>
       <c r="AR67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.9772799234999168</v>
       </c>
       <c r="AT67" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>2^5</v>
       </c>
       <c r="AU67" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>2^4</v>
       </c>
       <c r="AV67" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>2^3</v>
       </c>
       <c r="AW67" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>2^2</v>
       </c>
       <c r="AX67" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>2^1</v>
       </c>
       <c r="AY67" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>2^0</v>
       </c>
       <c r="AZ67">
@@ -8423,12 +8417,24 @@
   <sortState ref="AQ5:AQ65">
     <sortCondition ref="AQ65"/>
   </sortState>
-  <mergeCells count="27">
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="E10:F10"/>
+  <mergeCells count="29">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="E4:L4"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="AI2:AN2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="E21:L21"/>
+    <mergeCell ref="E22:L22"/>
+    <mergeCell ref="E23:L23"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="G27:L27"/>
     <mergeCell ref="E28:L28"/>
@@ -8436,21 +8442,11 @@
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:L24"/>
     <mergeCell ref="E26:L26"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="E20:L20"/>
-    <mergeCell ref="E21:L21"/>
-    <mergeCell ref="E22:L22"/>
-    <mergeCell ref="E23:L23"/>
-    <mergeCell ref="E1:L1"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="E7:L7"/>
-    <mergeCell ref="AI2:AN2"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="E4:L4"/>
-    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
